--- a/lib/data.xlsx
+++ b/lib/data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13665" windowHeight="9180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13665" windowHeight="9180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="400">
   <si>
     <t>University name</t>
   </si>
@@ -295,12 +295,966 @@
   </si>
   <si>
     <t>kcfaller@umich.edu</t>
+  </si>
+  <si>
+    <t>International</t>
+  </si>
+  <si>
+    <t>Baylor College of Medicine</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Mixed state and private</t>
+  </si>
+  <si>
+    <t>Child Abuse Pediatrics</t>
+  </si>
+  <si>
+    <t>Child Abuse Pediatrics board eligibility</t>
+  </si>
+  <si>
+    <t>Post residency fellowship training</t>
+  </si>
+  <si>
+    <t>Chidl Abuse Pediatrics</t>
+  </si>
+  <si>
+    <t>Vision Statement: The Section of Public Health Pediatrics and Baylor College of Medicine will train clinicians of the next generation to provide high quality care and thoughtful clinical evaluations for children who are suspected victims of child maltreatment.   
+The spirit behind the newly created Section of Public Health Pediatrics (SPHP) is the recognition that complex family and community forces play a large role in the health and well-being of the children we care for at Texas Children’s Hospital and The Children’s Assessment Center.   Baylor College of Medicine and Texas Children's Hospital have sponsored a Child Abuse Pediatrics fellowship training program for interested Pediatrics residency graduates since 2013.  
+Fellowship learners will share in team consultation on several hundred potentially maltreated inpatients and out patient clinic follow up visits or non-acute assessments in the course of their training.  These consults typically focus on questions of physical abuse, neglect, or medical child abuse contributing to the child’s hospital presentation.  Further, they will participate in the evaluation of children involved in sexual abuse investigations in the medical clinic at The Children's Assessment Center in Harris County, which serves approximately 1000 children yearly. 
+Critical to providing excellent clinical care and education is the seeking, obtaining and synthesizing of new knowledge.  Endeavors at clinical research in diagnosis and management of abuse and neglect, health services research, community based prevention strategies, and the impact of policy on children and families will be encouraged and supported.</t>
+  </si>
+  <si>
+    <t>https://www.bcm.edu/departments/pediatrics/sections-divisions-centers/public-health-pediatrics/education-training/child-abuse-pediatrics</t>
+  </si>
+  <si>
+    <t>Marcella Donaruma, MD</t>
+  </si>
+  <si>
+    <t>donaruma@bcm.edu</t>
+  </si>
+  <si>
+    <t>Program Director, Child Abuse Pediatrics Fellowship</t>
+  </si>
+  <si>
+    <t>Winona State University</t>
+  </si>
+  <si>
+    <t>Winona</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Child Advocacy Studies</t>
+  </si>
+  <si>
+    <t>Chaild Advocacy Studies (CAST)</t>
+  </si>
+  <si>
+    <t>Minor in Child Advocacy Studies</t>
+  </si>
+  <si>
+    <t>The CAST program at WSU was the first CAST program in the nation. We work with the National Child Protection and Training Center and have several NCPTC employees on campus. Our program covers the spectrum of topics in child maltreatment and incorporates Adverse Childhood Experiences (ACES) and trauma in the curriculum. We provide a variety of course delivery methods including  in person, online and also a hybrid option is available.</t>
+  </si>
+  <si>
+    <t>http://www.winona.edu/cast/program.asp</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Dr. Jodi L. Saunders</t>
+  </si>
+  <si>
+    <t>Jsaunders@winona.edu</t>
+  </si>
+  <si>
+    <t>Associate Professor and Director of Child Advocacy Studies</t>
+  </si>
+  <si>
+    <t>University of South Carolina Upstate</t>
+  </si>
+  <si>
+    <t>Spartanburg</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>Psychology</t>
+  </si>
+  <si>
+    <t>Child Advocacy Studies (CAST)</t>
+  </si>
+  <si>
+    <t>Certificate</t>
+  </si>
+  <si>
+    <t>Post-Baccalaureate Certificate</t>
+  </si>
+  <si>
+    <t>21 credit hour minor and 15 credit hour post-baccalaureate certificate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child Advocacy Studies (CAST) is a nationally recognized program based on best practices in child abuse prevention. The CAST minor is interdisciplinary and provides comprehensive and experiential education to students who plan to work in a variety of areas serving children. The CAST post-baccalaureate certificate is designed for professionals already working in these areas and wish to develop greater knowledge and skills, or individuals pursuing a career in a child related field. 
+Graduates of these programs will have a strong understanding of the theoretical and environmental issues that surround child abuse, the various systems that address child protection, evidence-based intervention strategies, and multidisciplinary approaches to prevention, advocacy, and treatment of child maltreatment victims and survivors. This curriculum is experiential with emphasis on ethical and legal responsibility, and cultural sensitivity. The CAST curriculum prepares students for professions in a variety of settings including law enforcement, behavioral health, healthcare, law and education.
+</t>
+  </si>
+  <si>
+    <t>Jennifer S. Parker, Pd.D., LPC</t>
+  </si>
+  <si>
+    <t>jparker@uscupstate.edu</t>
+  </si>
+  <si>
+    <t>CAST Director and Professor Psychology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northeastern Illinois University </t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Penn State</t>
+  </si>
+  <si>
+    <t>University Park</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>Inter-college Minor derived from Human Development, Education, Psychology, Medicine, and Nursing</t>
+  </si>
+  <si>
+    <t>Child Maltreatment and Advocacy Studies</t>
+  </si>
+  <si>
+    <t>Minor in Child Maltreatment and Advocacy Studies / CAST Certificate</t>
+  </si>
+  <si>
+    <t>Our program is the only nationally recognized education program at the University level in child maltreatment and advocacy studies that results in a formalized Minor education.</t>
+  </si>
+  <si>
+    <t>http://protectchildren.psu.edu/cmas</t>
+  </si>
+  <si>
+    <t>Cheri McConnell</t>
+  </si>
+  <si>
+    <t>cln3@psu.edu</t>
+  </si>
+  <si>
+    <t>Education Coordinator, Child Maltreatment Solutions Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of California -- Davis </t>
+  </si>
+  <si>
+    <t>Sacramento</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brown University </t>
+  </si>
+  <si>
+    <t>Providence</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>St. John's University</t>
+  </si>
+  <si>
+    <t>Queens</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Child HELP Partnership</t>
+  </si>
+  <si>
+    <t>PhD in Clinical; PsyD is School</t>
+  </si>
+  <si>
+    <t>Child HELP Partnership was founded in 2001 with the mission of protecting children from trauma and its emotional impact. The healing arm of Child HELP Partnership, called PARTNERS, is a specialized mental health clinic for children and their caregivers who have been traumatized by interpersonal violence. We provide outreach, evaluations, psychotherapy, and case management services in an outpatient setting. Therapies used are empirically-supported and trauma-informed. Evaluations are conducted before, during and after completion of therapy to monitor clinical outcomes and inform future treatment recommendations.</t>
+  </si>
+  <si>
+    <t>www.childhelppartnership.org</t>
+  </si>
+  <si>
+    <t>Elissa Brown</t>
+  </si>
+  <si>
+    <t>browne@stjohns.edu</t>
+  </si>
+  <si>
+    <t>Professor</t>
+  </si>
+  <si>
+    <t>Mitchell Hamline School of Law</t>
+  </si>
+  <si>
+    <t>St. Paul</t>
+  </si>
+  <si>
+    <t>Law school</t>
+  </si>
+  <si>
+    <t>Law</t>
+  </si>
+  <si>
+    <t>Child Protection Program at MHSL</t>
+  </si>
+  <si>
+    <t>JD</t>
+  </si>
+  <si>
+    <t>We are considering a certificate and / or concentration in child protection.</t>
+  </si>
+  <si>
+    <t>Our law school has many opportunities (externships, courses, law clinics) to specialize in the area of child protection / child welfare.</t>
+  </si>
+  <si>
+    <t>www.mitchellhamline.edu</t>
+  </si>
+  <si>
+    <t>Joanna Woolman</t>
+  </si>
+  <si>
+    <t>joanna.woolman@mitchellhamline.edu</t>
+  </si>
+  <si>
+    <t>Associate Professor, Director Child Protection Progam</t>
+  </si>
+  <si>
+    <t>Hofstra University School of Law</t>
+  </si>
+  <si>
+    <t>Hempstead</t>
+  </si>
+  <si>
+    <t>University of Portsmouth/Leeds</t>
+  </si>
+  <si>
+    <t>London, England United Kingdom</t>
+  </si>
+  <si>
+    <t>Post Graduate MSc. in Child Forensic Studies in Psychology and Law</t>
+  </si>
+  <si>
+    <t>Psychology &amp; Law</t>
+  </si>
+  <si>
+    <t>MSc. in Child Forensic Studies</t>
+  </si>
+  <si>
+    <t>MSc.</t>
+  </si>
+  <si>
+    <t>Child Forensic Studies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This MSc. Degree program in Child Forensic Studies in Psychology and the Law readies the potential forensic expert in Court to not only learn law like a lawyer, but acquire the requisite training to offer expert opinions in courts of law like a psychologist. </t>
+  </si>
+  <si>
+    <t>http://www.port.ac.uk/courses/psychology/msc-child-forensic-studies-psychology-and-law</t>
+  </si>
+  <si>
+    <t>Dean Tong</t>
+  </si>
+  <si>
+    <t>DeanTong@aol.com</t>
+  </si>
+  <si>
+    <t>Forensic Trial Expert</t>
+  </si>
+  <si>
+    <t>University of Tennessee Chattanooga</t>
+  </si>
+  <si>
+    <t>Chattanooga</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Title IV-E Child Welfare Stipend Program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Students enrolled in the Child Welfare Training Program at UTC provides two options: 1) the Child Welfare Certificate program where the student enrolls in a sequence of Child Welfare courses where the content focuses on theory and components of the child welfare system and direct practice with children and families in the child welfare system and students in the Child Welfare Certificate program may opt to do their field placement at Department of Children Services (DCS). In the Child Welfare Stipend program students enroll in the Child Welfare sequence courses, complete their Field Education at the Department of Children Services (DCS) and receive financial assistance to offset education expenses. Students who receive financial assistance through the stipend program are expected to work for DCS two-years post graduation.   </t>
+  </si>
+  <si>
+    <t>https://www.utc.edu/social-work/</t>
+  </si>
+  <si>
+    <t>Cathy B. Scott</t>
+  </si>
+  <si>
+    <t>cathy-scott@utc.edu</t>
+  </si>
+  <si>
+    <t>BSW Program Director</t>
+  </si>
+  <si>
+    <t>University of Pennsylvania</t>
+  </si>
+  <si>
+    <t>Philadelphia</t>
+  </si>
+  <si>
+    <t>School of Social Policy &amp; Practice (SP2)</t>
+  </si>
+  <si>
+    <t>Child Well-Being &amp; Child Welfare Specialization (CW2)</t>
+  </si>
+  <si>
+    <t>The Child Well-Being and Child Welfare Specialization (CW2) educates students to provide clinical and macro social work services in a culturally competent manner to produce positive outcomes for children and families while also ensuring child safety, permanency, and well-being.
+Under the direction of expert faculty, students in this specialization gain a broad understanding of practice methods and the continuum of services and policies that are intended to protect children and preserve families. The focused curriculum on social work practice, policy, and services includes coursework on skills to work effectively with children and their families and strategies for productive change in service delivery systems. Students complete field placements that offer opportunities for cutting edge practice in the specialization area, including (but not limited to) the Field Center for Children’s Policy, Practice &amp; Research, Philadelphia Department of Human Services, child advocacy centers, child protection teams, schools, and mental health settings.
+The CW2 specialization is designed to integrate clinical and macro social work practice across the field of child welfare, including children’s mental health, child protective services, in-home services, foster care, school adjustment, and medical and social issues. Students receive instruction in evidence-based practice and management strategies in order to develop competency in working with children and youth in a variety of contexts. SP2 is committed to developing highly skilled, trauma-informed child welfare social work practitioners and leaders who are committed to practice, management, and advocacy in a range of children’s services.</t>
+  </si>
+  <si>
+    <t>https://www.sp2.upenn.edu/degree-programs/certificate-programs-specializations/msw/child-well-being-child-welfare-specialization/</t>
+  </si>
+  <si>
+    <t>Johanna Greeson</t>
+  </si>
+  <si>
+    <t>jgreeson@sp2.upenn.edu</t>
+  </si>
+  <si>
+    <t>Assistant Professor/Co-Director, CW2</t>
+  </si>
+  <si>
+    <t>Universidade Federal da Bahia</t>
+  </si>
+  <si>
+    <t>Vitória da conquista</t>
+  </si>
+  <si>
+    <t>NYU School of Medicine</t>
+  </si>
+  <si>
+    <t>Child Protection Committee/Department of Pediatrics</t>
+  </si>
+  <si>
+    <t>Courses offered in child maltreatment,  but no certification/degree</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Medical student elective rotations</t>
+  </si>
+  <si>
+    <t>Vincent J Palusci</t>
+  </si>
+  <si>
+    <t>vincent.palusci@nyumc.org</t>
+  </si>
+  <si>
+    <t>Professor of Pediatrics</t>
+  </si>
+  <si>
+    <t>University of Nebraska-Lincoln</t>
+  </si>
+  <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Clinical Psychology Training Program</t>
+  </si>
+  <si>
+    <t>Ph.D. in Clinical Psychology</t>
+  </si>
+  <si>
+    <t>Clinical and research emphases</t>
+  </si>
+  <si>
+    <t>Students in our APA-accredited doctoral program in clinical psychology can participate in clinical and research training in child maltreatment and family violence.   This includes practica and other clinical experiences and opportunities for research, including theses and dissertations.  A number of our core faculty members have interests in maltreatment, family violence, trauma, and related issues (http://psychology.unl.edu/clinical-psychology-training-program/core-faculty).   For example, the UNL Child Maltreatment Lab conducts research across various forms of maltreatment, including sexual abuse, physical abuse, and neglect (http://psychology.unl.edu/childmaltreatmentlab).</t>
+  </si>
+  <si>
+    <t>http://psychology.unl.edu/clinical-psychology-training-program/</t>
+  </si>
+  <si>
+    <t>David J. Hansen, Ph.D.</t>
+  </si>
+  <si>
+    <t>dhansen1@unl.edu</t>
+  </si>
+  <si>
+    <t>Professor and Director of Clinical Training</t>
+  </si>
+  <si>
+    <t>University of Connecticut</t>
+  </si>
+  <si>
+    <t>Hartford</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Division of Child Abuse Pediatrics, Department of Pediatrics, University of Connecticut School of Medicine</t>
+  </si>
+  <si>
+    <t>Elective rotations on the child abuse clinical service and didactic instruction for medical trainees</t>
+  </si>
+  <si>
+    <t>The SCAN (suspected child abuse and neglect) team is a specialty within Connecticut Children's Specialty Group at Connecticut Children's Medical Center, a freestanding children's hospital in Hartford, CT. Clinical services include inpatient and outpatient consult services. There is an academic division of Child Abuse Pediatrics in the Department of Pediatrics at the University of Connecticut School of Medicine, and our faculty teach medical trainees at the medical school, residency, and fellowship levels. The pediatric residency is based at Connecticut Children's Medical Center.</t>
+  </si>
+  <si>
+    <t>Nina Livingston, MD</t>
+  </si>
+  <si>
+    <t>nlivingston@connecticutchildrens.org</t>
+  </si>
+  <si>
+    <t>Division Director, Child Abuse Pediatrics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johns Hopkins Bloomberg School of Public Health </t>
+  </si>
+  <si>
+    <t>Baltimore</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Public Health</t>
+  </si>
+  <si>
+    <t>MPH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masters in Public Health/ Maternal and Child Health Certificate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child and Adolescent Health </t>
+  </si>
+  <si>
+    <t xml:space="preserve">While the title of the MPH program concentration in child/ adolescent health OR the certificate program doesn't directly imply child maltreatment, the school has multiple faculty that work in the research field of child welfare.Their work specifically has implications on the improvement of  home visitation services for children in the welfare system (and other Title V and IV-E MCH health). In addition, one of the primary goals of the Johns Hopkins Bloomberg School of Public Health is to prepare students for careers (e.g. federal, state, international level) that help protect and save lives of vulnerable populations. </t>
+  </si>
+  <si>
+    <t>MPH Program Child/Adolescent Health Concentration URL: https://www.jhsph.edu/academics/degree-programs/master-of-public-health/program-overview/full-time.html  certificate program URL (offered to non-degree and degree students): https://www.jhsph.edu/academics/certificate-programs/certificates-for-hopkins-and-non-degree-students/maternal-and-child-health.html</t>
+  </si>
+  <si>
+    <t>Caitlin Jelinek</t>
+  </si>
+  <si>
+    <t>cjeline2@jhu.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student Researcher </t>
+  </si>
+  <si>
+    <t>Slippery Rock University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slippery Rock </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department of Pubic Health and Social Work </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerontology and Animal Assisted Socal Work </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slippery Rock University offers a world class Bachelor of Social Work Program.  As with all CSWE accredited programs, the BSW Program at Slippery Rock University offers a generalist curriculum.   We do however offer electives for those students wanting to work in child services.  Classes are taught by faculty with a minimum of ten years of current child welfare practice experience.  We offer internship experiences in child advocacy centers, public and private child welfare agencies, urban and rural placements.  Through the creative use of video streaming in classroom, global internships are available.  There are opportunities for face to face and online learning.  Through a collaborative relationship with a local child advocacy center, students may observe forensic interviews and investigations and get "hand's on" participate experience in some activities. 
+The Program offers students the opportunity to participate in Pennsylvania's Child Welfare Education for Baccalaureates (CWEB), which covers most of the educational expenses of their senior year.   Other scholarships are available.  The University tuition is among the lowest in Pennsylvania.  After graduation, placement assistance is provided to the student in child welfare agencies and MSW programs.  A MSW program is planned to begin in 2020. 
+The Program also offers course electives which support an interest in child protection and children's services.  These courses include: child welfare services, animal assisted social work, forensic social work, crisis intervention, social justice and human sexuality.    
+Students can write grants and attend conferences related to child welfare.  The Program annually co-sponsors the largest child welfare conference in the Pittsburgh region.  Students actively advocate for policy changes traveling to Harrisburg and meeting with local and federal representatives.  
+Finally, students are advised by faculty who help them develop the learning experience.  Every semester, students and advisors meet face to face to review and evaluate the leaning needs of the student and modify their coursework as needed.  Heavy emphasis is place on having the student well prepared for work after graduation.  The employment and/or graduate school placement success rate for the past five years is 100%.
+        </t>
+  </si>
+  <si>
+    <t>http://www.sru.edu/academics/colleges-and-departments/ches/departments/social-work</t>
+  </si>
+  <si>
+    <t>Dr. Larry Breitenstein</t>
+  </si>
+  <si>
+    <t>larry.breitenstein@sru.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program Coordinator </t>
+  </si>
+  <si>
+    <t>Oregon State University-Cascades</t>
+  </si>
+  <si>
+    <t>Bend</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Human Development</t>
+  </si>
+  <si>
+    <t>Human Development and Family Sciences</t>
+  </si>
+  <si>
+    <t>Masters of Science</t>
+  </si>
+  <si>
+    <t>Human Services or Child Development</t>
+  </si>
+  <si>
+    <t>Faculty conduct high-level research related to trauma, preventive interventions, and foster care.</t>
+  </si>
+  <si>
+    <t>http://osucascades.edu/academics/human-development-and-family-sciences</t>
+  </si>
+  <si>
+    <t>Shannon Lipscomb</t>
+  </si>
+  <si>
+    <t>shannon.lipscomb@osucascades.edu</t>
+  </si>
+  <si>
+    <t>Associate Professor and Program Lead for Human Development and Family Science</t>
+  </si>
+  <si>
+    <t>University of North Texas</t>
+  </si>
+  <si>
+    <t>Denton</t>
+  </si>
+  <si>
+    <t>University of California, Davis</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Psychology, Human Development, and Pediatrics</t>
+  </si>
+  <si>
+    <t>PhD</t>
+  </si>
+  <si>
+    <t>As part of a PhD in Developmental Psychology or Human Development, students can work with faculty who specialize in research and courses on child maltreatment.</t>
+  </si>
+  <si>
+    <t>http://psychology.ucdavis.edu/research/research-areas/developmental</t>
+  </si>
+  <si>
+    <t>Dr. Gail S. Goodman</t>
+  </si>
+  <si>
+    <t>ggoodman@ucdavis.edu</t>
+  </si>
+  <si>
+    <t>Distinguished Professor</t>
+  </si>
+  <si>
+    <t>Howard University</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>District of Columbia (DC)</t>
+  </si>
+  <si>
+    <t>School of Social Work - Field of Practice: Family and Child Welfare</t>
+  </si>
+  <si>
+    <t>Family and Child Welfare</t>
+  </si>
+  <si>
+    <t>Karen M. Kolivoski</t>
+  </si>
+  <si>
+    <t>karen.kolivoski@howard.edu</t>
+  </si>
+  <si>
+    <t>Assistant Professor</t>
+  </si>
+  <si>
+    <t>Jackson State University</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>University of Rhode Island</t>
+  </si>
+  <si>
+    <t>It is a course--Child Maltreatment Colloquium</t>
+  </si>
+  <si>
+    <t>Part of undergrad course offerings although graduate students periodically take this colloquium</t>
+  </si>
+  <si>
+    <t>Dr. Richard Solomon</t>
+  </si>
+  <si>
+    <t>canuck42@uri.edu</t>
+  </si>
+  <si>
+    <t>Adjunct Professor of Psychology</t>
+  </si>
+  <si>
+    <t>University of Tennessee, Chattanooga</t>
+  </si>
+  <si>
+    <t>California State University-Fullerton</t>
+  </si>
+  <si>
+    <t>Fullerton</t>
+  </si>
+  <si>
+    <t>Clinical Psychology</t>
+  </si>
+  <si>
+    <t>BA, MA, MS</t>
+  </si>
+  <si>
+    <t>scientist-practitioner oriented MS program in clinical, research focused program in general psychology</t>
+  </si>
+  <si>
+    <t>http://psychology.fullerton.edu/</t>
+  </si>
+  <si>
+    <t>Mindy Mechanic</t>
+  </si>
+  <si>
+    <t>mmechanic@fullerton.edu</t>
+  </si>
+  <si>
+    <t>Professor of Psychology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geisel School of Medicine at Dartmouth </t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>Columbia University</t>
+  </si>
+  <si>
+    <t>Medical College of Wisconsin</t>
+  </si>
+  <si>
+    <t>Milwaukee</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Medical College of Wisconsin and Affiliated Hospital's Child Abuse Pediatrics Fellowship</t>
+  </si>
+  <si>
+    <t>Eligable to take the American Board of Pediatrics Certification Exam in Child Abuse Pediatrics</t>
+  </si>
+  <si>
+    <t>Graduate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Medical College of Wisconsin and Affiliated Hospitals (MCWAH) sponsors a three-year fellowship in Child Abuse Pediatrics (CAP), which is accredited by the ACGME. Fellows will be an integral part of the Child Advocacy and Protection Services program, which provides hospital-based and outpatient services for suspected victims of child abuse and neglect. Fellows will develop skills and expertise in evaluating all types of child maltreatment, providing legal testimony, and advocating for children through their work as members of the multidisciplinary team, didactics, rotations with other specialties, attendance at conferences, and experiences with community agencies. 
+The primary teaching site for the CAP fellowship is Children’s Hospital of Wisconsin (CHW), a freestanding academic children’s hospital affiliated with the Medical College of Wisconsin (MCW). A 306-bed hospital with a Level I Trauma Center, CHW serves children throughout Wisconsin and northern Illinois.  
+Program highlights include:
+Well-staffed, multidisciplinary, statewide program
+The Child Advocacy medical team is composed of four board-certified child abuse pediatricians, two general pediatricians, six advanced practice providers, as well as social workers, forensic interviewers, child life specialists and support staff. The program does not rely on learners for service obligations, allowing fellows to focus on learning.  
+Diverse range of clinical experiences
+The child abuse team evaluates more than 6,500 cases of child maltreatment annually, making it one of the largest Child Abuse Pediatrics programs in the country. Fellows rotate with a diverse range of subspecialty services, including Burn Surgery, Forensic Pathology, Toxicology, and Mental Health among others. In addition to a wide variety of inpatient consult experiences, outpatient clinical experience includes time at the Milwaukee Child Advocacy Center (MCAC) and multiple community sites.  MCAC serves Milwaukee as well as the surrounding areas to provide onsite services including forensic interviews, mental health therapy, medical evaluations, and victim services.  It is one of seven CHW Child Advocacy Centers in Wisconsin, many of which fellows will rotate through for experience in more rural settings. Fellows also will complete forensic interview training during their fellowship. In addition to evaluating children suspected of being maltreated, fellows gain multiple skills in evaluation of children in foster care through the MCAC’s busy foster care medical home program called Care4Kids.
+Established board review program
+Child Advocacy and Protection faculty have developed written board review material based on the American Board of Pediatrics Content Specifications for the Subspecialty Board Exam. These materials are updated regularly and reviewed with fellows during weekly board review sessions. MCWAH Child Abuse Pediatrics fellows consistently score at least one standard deviation above the mean on in-service examinations and the Board pass rate for the program is 100%.
+Unique community and systems perspective
+The Milwaukee CAC is housed within Milwaukee’s Family Peace Center, the largest and most comprehensive family justice center in the nation.  Multiple youth-service community and investigative agencies are co-located within the center. Multidisciplinary team agencies, including CHW, have signed a Memorandum of Understanding recognizing a joint protocol for the initial investigation and service provision of child maltreatment investigations in Milwaukee County. These collaborative efforts allow our fellows unique opportunities for systems-based learning and community advocacy.
+Support for scholarly activities
+Members of the medical team are actively engaged in teaching and research in addition to their clinical duties. A research coordinator provides support to the Child Advocacy and Protection division, and the Medical College of Wisconsin Quantitative Health Sciences  department provides support for research development, study design, and statistics. Subsidized tuition is available for fellows who wish to obtain a Master’s Degree in Public Health, Bioethics, or Clinical and Translational Science through the Medical College of Wisconsin during their fellowship. In addition to dedicated research blocks, the program offers protected time and funding for attendance at local and national conferences.
+Emphasis on work-life balance
+Given the nature of Child Abuse Pediatrics, the program recognizes the importance of work-life balance. This culture is supported by Child Advocacy and CHW leadership and is reflected in program policies and within the structure of the fellowship and health system. 
+Located on the shores of Lake Michigan, Milwaukee is a great place to live.  The Milwaukee metropolitan area offers a wide variety of communities from urban to rural.  You will find excellent schools, professional, college and amateur sports, a vibrant restaurant scene, one of the most extensive park systems in the country, and numerous opportunities for enjoying theatre, music and art. 
+Reimbursement for fellowship interviews
+Applicants who are interested in further exploring fellowship training through the MCWAH Child Abuse Pediatrics Fellowship will be reimbursed for lodging and other travel expenses.
+</t>
+  </si>
+  <si>
+    <t>http://www.mcw.edu/Pediatrics/Child-Advocacy-and-Protection/Fellowship.htm</t>
+  </si>
+  <si>
+    <t>Angela Rabbitt, DO</t>
+  </si>
+  <si>
+    <t>arabbitt@chw.org</t>
+  </si>
+  <si>
+    <t>Associate Professor of Pediatrics, Child Abuse Pediatrics Fellowship Program Director</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baylor College of Medicine </t>
+  </si>
+  <si>
+    <t>Georgia State University</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>UC Davis CHildren's Hospital</t>
+  </si>
+  <si>
+    <t>Lynchburg College</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lynchburg </t>
+  </si>
+  <si>
+    <t>Criminal Justice/Law Enforcement</t>
+  </si>
+  <si>
+    <t>Criminology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bachelor </t>
+  </si>
+  <si>
+    <t>I actually did a research project on this and will be presenting my findings at the ACJS conference in February. Lynchburg College is just one of only fifteen colleges in the country that has an entire course on child abuse at the undergraduate level in a criminology program. I co-authored the textbook for this class "child abuse-today's issues"</t>
+  </si>
+  <si>
+    <t>Www.lynchburg.edu</t>
+  </si>
+  <si>
+    <t>Daniel Murphy</t>
+  </si>
+  <si>
+    <t>Murphy.dg@lynchburg.edu</t>
+  </si>
+  <si>
+    <t>The University of Colorado</t>
+  </si>
+  <si>
+    <t>Aurora</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>The Kempe Cetner for the Preventiona nd Treatment of Child Abuse and Neglect</t>
+  </si>
+  <si>
+    <t>We have both core training for social workers and mandatory training for health professionals as well as a Child Abuse Pediatrics Fellowship.</t>
+  </si>
+  <si>
+    <t>We run the Child Welfare Training system for the state of Colorado with on-line and in person courses for child protection personnel.  We also have a social science post-doc and a child abuse pediatrics training program.</t>
+  </si>
+  <si>
+    <t>WWW.KempeCenter.org</t>
+  </si>
+  <si>
+    <t>Des Runyan</t>
+  </si>
+  <si>
+    <t>Des.Runyan@ucdenver.edu</t>
+  </si>
+  <si>
+    <t>Executive Director</t>
+  </si>
+  <si>
+    <t>Uinversity of Washington</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>Children's Protection Program, Seattle Children's</t>
+  </si>
+  <si>
+    <t>Abuse Fellowship</t>
+  </si>
+  <si>
+    <t>3 year full time fellowship post residency</t>
+  </si>
+  <si>
+    <t>Kenneth Feldman, MD</t>
+  </si>
+  <si>
+    <t>kfeldman@uw.edu</t>
+  </si>
+  <si>
+    <t>SCAN Pediatrician</t>
+  </si>
+  <si>
+    <t>University of Rochester</t>
+  </si>
+  <si>
+    <t>Rochester</t>
+  </si>
+  <si>
+    <t>University of Colorado School of Medicine</t>
+  </si>
+  <si>
+    <t>University of Iowa</t>
+  </si>
+  <si>
+    <t>Iowa City</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>University of Iowa Child Protection Program</t>
+  </si>
+  <si>
+    <t>Mini-fellowship (2-4 weeks for medical students and 4 weeks for international visiting professors)</t>
+  </si>
+  <si>
+    <t>https://uichildrens.org/medical-services/child-protection-program</t>
+  </si>
+  <si>
+    <t>resmiye oral</t>
+  </si>
+  <si>
+    <t>resmiye-oral@uiowa.edu</t>
+  </si>
+  <si>
+    <t>Clinical Professor of Pediatrics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Georgia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Athens </t>
+  </si>
+  <si>
+    <t>University Name</t>
+  </si>
+  <si>
+    <t>University City</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Career Center</t>
+  </si>
+  <si>
+    <t>Other / User Entry</t>
+  </si>
+  <si>
+    <t>Name of Program Displayed / User Entry</t>
+  </si>
+  <si>
+    <t>No Cert/Degree / User Entry</t>
+  </si>
+  <si>
+    <t>Other Level of Study / User Entry</t>
+  </si>
+  <si>
+    <t>No concentration / User Entry</t>
+  </si>
+  <si>
+    <t>Program description / User entry</t>
+  </si>
+  <si>
+    <t>Program URL / User Entry</t>
+  </si>
+  <si>
+    <t>Name entered / User Entry / Not Displayed / For Internal Use Only</t>
+  </si>
+  <si>
+    <t>Email entered / User Entry / Not Displayed / For Internal Use Only</t>
+  </si>
+  <si>
+    <t>Cuyahoga Valley Career Center</t>
+  </si>
+  <si>
+    <t>Brecksville</t>
+  </si>
+  <si>
+    <t>Coding Bootcamp</t>
+  </si>
+  <si>
+    <t>CVCC Coding Bootcamp</t>
+  </si>
+  <si>
+    <t>Industry-recognized Certificate</t>
+  </si>
+  <si>
+    <t>14-week accelerated program</t>
+  </si>
+  <si>
+    <t>Cuyahoga Valley Career Center Coding Bootcamp</t>
+  </si>
+  <si>
+    <t>14 week, full-time, full-stack JavaScript coding bootcamp, designed to provide students career opportunities in software development in 3-6 months.</t>
+  </si>
+  <si>
+    <t>collectiveeducation.com/cvcc</t>
+  </si>
+  <si>
+    <t>Mark Holiday</t>
+  </si>
+  <si>
+    <t>mark@collectiveeducation.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Michigan </t>
+  </si>
+  <si>
+    <t>Child Advocacy Law Clinic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JD--this is not specialized to child maltreatment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A student can choose a few classes focused on child protection </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Students are offered the opportunity to handle real child protection cases. Students are responsible for all aspects of the case including client interviewing, case investigation, developing a theory of the case, conducting discovery, negotiation with lawyers representing the other parties and presenting the case in court. </t>
+  </si>
+  <si>
+    <t>http://www.law.umich.edu/clinical/calc/Pages/default.aspx</t>
+  </si>
+  <si>
+    <t>Frank E. Vandervort</t>
+  </si>
+  <si>
+    <t>vort@umich.edu</t>
+  </si>
+  <si>
+    <t>University of Oklahoma Health Sciences Center</t>
+  </si>
+  <si>
+    <t>Title</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -315,7 +1269,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,6 +1300,18 @@
         <bgColor rgb="FFEAEAE8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -374,7 +1340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -389,6 +1355,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -692,12 +1664,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -721,9 +1691,10 @@
     <col min="22" max="22" width="17.19921875" style="2" customWidth="1"/>
     <col min="23" max="23" width="25.06640625" style="2" customWidth="1"/>
     <col min="24" max="24" width="24.6640625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="16.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="2" customFormat="1" ht="81.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:26" s="2" customFormat="1" ht="81.75" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -780,8 +1751,14 @@
         <v>83</v>
       </c>
       <c r="X1" s="5"/>
-    </row>
-    <row r="2" spans="1:24" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.45">
+      <c r="Y1" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -832,380 +1809,2942 @@
       <c r="X2" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+      <c r="Y2" s="7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O3" t="s">
+        <v>100</v>
+      </c>
+      <c r="P3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3" t="s">
+        <v>102</v>
+      </c>
+      <c r="U3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W3" t="s">
+        <v>103</v>
+      </c>
+      <c r="X3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4" t="s">
+        <v>111</v>
+      </c>
+      <c r="K4"/>
+      <c r="L4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" t="s">
+        <v>113</v>
+      </c>
+      <c r="U4" t="s">
+        <v>114</v>
+      </c>
+      <c r="V4" t="s">
+        <v>33</v>
+      </c>
+      <c r="W4" t="s">
+        <v>115</v>
+      </c>
+      <c r="X4" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I5" t="s">
+        <v>123</v>
+      </c>
+      <c r="J5" t="s">
+        <v>124</v>
+      </c>
+      <c r="K5"/>
+      <c r="L5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5"/>
+      <c r="N5" t="s">
+        <v>125</v>
+      </c>
+      <c r="O5"/>
+      <c r="P5" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5" t="s">
+        <v>114</v>
+      </c>
+      <c r="V5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W5" t="s">
+        <v>127</v>
+      </c>
+      <c r="X5" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Z6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K7"/>
+      <c r="L7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7" t="s">
+        <v>140</v>
+      </c>
+      <c r="U7" t="s">
+        <v>114</v>
+      </c>
+      <c r="V7" t="s">
+        <v>33</v>
+      </c>
+      <c r="W7" t="s">
+        <v>141</v>
+      </c>
+      <c r="X7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Z8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Z9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" t="s">
+        <v>154</v>
+      </c>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10" t="s">
+        <v>156</v>
+      </c>
+      <c r="U10" t="s">
+        <v>33</v>
+      </c>
+      <c r="V10" t="s">
+        <v>33</v>
+      </c>
+      <c r="W10" t="s">
+        <v>157</v>
+      </c>
+      <c r="X10" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" t="s">
+        <v>165</v>
+      </c>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11" t="s">
+        <v>166</v>
+      </c>
+      <c r="P11" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11"/>
+      <c r="S11" t="s">
+        <v>20</v>
+      </c>
+      <c r="T11" t="s">
+        <v>168</v>
+      </c>
+      <c r="U11" t="s">
+        <v>33</v>
+      </c>
+      <c r="V11" t="s">
+        <v>33</v>
+      </c>
+      <c r="W11" t="s">
+        <v>169</v>
+      </c>
+      <c r="X11" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Z12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>176</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>177</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" t="s">
+        <v>179</v>
+      </c>
+      <c r="K13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13"/>
+      <c r="M13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13"/>
+      <c r="O13" t="s">
+        <v>180</v>
+      </c>
+      <c r="P13" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13" t="s">
+        <v>20</v>
+      </c>
+      <c r="T13" t="s">
+        <v>182</v>
+      </c>
+      <c r="U13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V13" t="s">
+        <v>33</v>
+      </c>
+      <c r="W13" t="s">
+        <v>183</v>
+      </c>
+      <c r="X13" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14"/>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14"/>
+      <c r="H14" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I14" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14" t="s">
+        <v>191</v>
+      </c>
+      <c r="U14" t="s">
+        <v>33</v>
+      </c>
+      <c r="V14" t="s">
+        <v>114</v>
+      </c>
+      <c r="W14" t="s">
+        <v>192</v>
+      </c>
+      <c r="X14" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15"/>
+      <c r="F15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15"/>
+      <c r="H15" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I15" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15"/>
+      <c r="O15" t="s">
+        <v>198</v>
+      </c>
+      <c r="P15" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15" t="s">
+        <v>200</v>
+      </c>
+      <c r="U15" t="s">
+        <v>33</v>
+      </c>
+      <c r="V15"/>
+      <c r="W15" t="s">
+        <v>201</v>
+      </c>
+      <c r="X15" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>204</v>
+      </c>
+      <c r="B16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Z16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>206</v>
+      </c>
+      <c r="B17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17"/>
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17"/>
+      <c r="H17" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I17" t="s">
+        <v>208</v>
+      </c>
+      <c r="J17" t="s">
+        <v>209</v>
+      </c>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17" t="s">
+        <v>210</v>
+      </c>
+      <c r="O17" t="s">
+        <v>209</v>
+      </c>
+      <c r="P17"/>
+      <c r="Q17" t="s">
+        <v>18</v>
+      </c>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17" t="s">
+        <v>33</v>
+      </c>
+      <c r="V17" t="s">
+        <v>33</v>
+      </c>
+      <c r="W17" t="s">
+        <v>211</v>
+      </c>
+      <c r="X17" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>214</v>
+      </c>
+      <c r="B18" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" t="s">
+        <v>216</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18"/>
+      <c r="H18" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="I18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" t="s">
+        <v>218</v>
+      </c>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18" t="s">
+        <v>219</v>
+      </c>
+      <c r="O18"/>
+      <c r="P18" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>18</v>
+      </c>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18" t="s">
+        <v>221</v>
+      </c>
+      <c r="U18" t="s">
+        <v>33</v>
+      </c>
+      <c r="V18" t="s">
+        <v>33</v>
+      </c>
+      <c r="W18" t="s">
+        <v>222</v>
+      </c>
+      <c r="X18" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>225</v>
+      </c>
+      <c r="B19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C19" t="s">
+        <v>227</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19"/>
+      <c r="H19" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="I19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19" t="s">
+        <v>229</v>
+      </c>
+      <c r="O19"/>
+      <c r="P19" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>18</v>
+      </c>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19" t="s">
+        <v>33</v>
+      </c>
+      <c r="V19" t="s">
+        <v>33</v>
+      </c>
+      <c r="W19" t="s">
+        <v>231</v>
+      </c>
+      <c r="X19" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>234</v>
+      </c>
+      <c r="B20" t="s">
+        <v>235</v>
+      </c>
+      <c r="C20" t="s">
+        <v>236</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20" t="s">
+        <v>237</v>
+      </c>
+      <c r="G20"/>
+      <c r="H20" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="I20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" t="s">
+        <v>239</v>
+      </c>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20" t="s">
+        <v>17</v>
+      </c>
+      <c r="N20"/>
+      <c r="O20" t="s">
+        <v>240</v>
+      </c>
+      <c r="P20" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>18</v>
+      </c>
+      <c r="R20"/>
+      <c r="S20" t="s">
+        <v>20</v>
+      </c>
+      <c r="T20" t="s">
+        <v>242</v>
+      </c>
+      <c r="U20" t="s">
+        <v>114</v>
+      </c>
+      <c r="V20" t="s">
+        <v>114</v>
+      </c>
+      <c r="W20" t="s">
+        <v>243</v>
+      </c>
+      <c r="X20" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>246</v>
+      </c>
+      <c r="B21" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21"/>
+      <c r="F21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21"/>
+      <c r="H21" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="I21" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" t="s">
+        <v>69</v>
+      </c>
+      <c r="K21" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21" t="s">
+        <v>249</v>
+      </c>
+      <c r="P21" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>18</v>
+      </c>
+      <c r="R21"/>
+      <c r="S21" t="s">
+        <v>20</v>
+      </c>
+      <c r="T21" t="s">
+        <v>251</v>
+      </c>
+      <c r="U21" t="s">
+        <v>33</v>
+      </c>
+      <c r="V21" t="s">
+        <v>114</v>
+      </c>
+      <c r="W21" t="s">
+        <v>252</v>
+      </c>
+      <c r="X21" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>255</v>
+      </c>
+      <c r="B22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C22" t="s">
+        <v>257</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22" t="s">
+        <v>258</v>
+      </c>
+      <c r="G22"/>
+      <c r="H22" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="I22" t="s">
+        <v>68</v>
+      </c>
+      <c r="J22" t="s">
+        <v>260</v>
+      </c>
+      <c r="K22" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22" t="s">
+        <v>261</v>
+      </c>
+      <c r="P22" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>18</v>
+      </c>
+      <c r="R22" t="s">
+        <v>19</v>
+      </c>
+      <c r="S22" t="s">
+        <v>20</v>
+      </c>
+      <c r="T22" t="s">
+        <v>263</v>
+      </c>
+      <c r="U22" t="s">
+        <v>33</v>
+      </c>
+      <c r="V22" t="s">
+        <v>33</v>
+      </c>
+      <c r="W22" t="s">
+        <v>264</v>
+      </c>
+      <c r="X22" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>267</v>
+      </c>
+      <c r="B23" t="s">
+        <v>268</v>
+      </c>
+      <c r="C23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Z23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>267</v>
+      </c>
+      <c r="B24" t="s">
+        <v>268</v>
+      </c>
+      <c r="C24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Z24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>269</v>
+      </c>
+      <c r="B25" t="s">
+        <v>270</v>
+      </c>
+      <c r="C25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s">
+        <v>271</v>
+      </c>
+      <c r="I25" t="s">
+        <v>64</v>
+      </c>
+      <c r="J25" t="s">
+        <v>272</v>
+      </c>
+      <c r="K25" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>18</v>
+      </c>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25" t="s">
+        <v>274</v>
+      </c>
+      <c r="U25" t="s">
+        <v>33</v>
+      </c>
+      <c r="V25" t="s">
+        <v>33</v>
+      </c>
+      <c r="W25" t="s">
+        <v>275</v>
+      </c>
+      <c r="X25" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>195</v>
+      </c>
+      <c r="B26" t="s">
+        <v>196</v>
+      </c>
+      <c r="C26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Z26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>278</v>
+      </c>
+      <c r="B27" t="s">
+        <v>279</v>
+      </c>
+      <c r="C27" t="s">
+        <v>280</v>
+      </c>
+      <c r="D27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27"/>
+      <c r="H27" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="I27" t="s">
+        <v>59</v>
+      </c>
+      <c r="J27" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27" t="s">
+        <v>17</v>
+      </c>
+      <c r="N27"/>
+      <c r="O27" t="s">
+        <v>282</v>
+      </c>
+      <c r="P27"/>
+      <c r="Q27" t="s">
+        <v>18</v>
+      </c>
+      <c r="R27" t="s">
+        <v>19</v>
+      </c>
+      <c r="S27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T27"/>
+      <c r="U27" t="s">
+        <v>33</v>
+      </c>
+      <c r="V27" t="s">
+        <v>33</v>
+      </c>
+      <c r="W27" t="s">
+        <v>283</v>
+      </c>
+      <c r="X27" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>286</v>
+      </c>
+      <c r="B28" t="s">
+        <v>287</v>
+      </c>
+      <c r="C28" t="s">
+        <v>288</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Z28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>289</v>
+      </c>
+      <c r="B29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29"/>
+      <c r="F29" t="s">
+        <v>121</v>
+      </c>
+      <c r="G29"/>
+      <c r="H29" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I29" t="s">
+        <v>208</v>
+      </c>
+      <c r="J29" t="s">
+        <v>209</v>
+      </c>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29" t="s">
+        <v>291</v>
+      </c>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29" t="s">
+        <v>18</v>
+      </c>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29" t="s">
+        <v>33</v>
+      </c>
+      <c r="V29" t="s">
+        <v>33</v>
+      </c>
+      <c r="W29" t="s">
+        <v>292</v>
+      </c>
+      <c r="X29" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>294</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>295</v>
+      </c>
+      <c r="B30" t="s">
+        <v>187</v>
+      </c>
+      <c r="C30" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Z30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>296</v>
+      </c>
+      <c r="B31" t="s">
+        <v>297</v>
+      </c>
+      <c r="C31" t="s">
+        <v>146</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31" t="s">
+        <v>121</v>
+      </c>
+      <c r="G31"/>
+      <c r="H31" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="I31" t="s">
+        <v>59</v>
+      </c>
+      <c r="J31" t="s">
+        <v>299</v>
+      </c>
+      <c r="K31" t="s">
+        <v>15</v>
+      </c>
+      <c r="L31" t="s">
+        <v>16</v>
+      </c>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>18</v>
+      </c>
+      <c r="R31" t="s">
+        <v>19</v>
+      </c>
+      <c r="S31"/>
+      <c r="T31" t="s">
+        <v>301</v>
+      </c>
+      <c r="U31" t="s">
+        <v>33</v>
+      </c>
+      <c r="V31"/>
+      <c r="W31" t="s">
+        <v>302</v>
+      </c>
+      <c r="X31" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>305</v>
+      </c>
+      <c r="B32" t="s">
+        <v>306</v>
+      </c>
+      <c r="C32" t="s">
+        <v>307</v>
+      </c>
+      <c r="D32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32"/>
+      <c r="Z32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>308</v>
+      </c>
+      <c r="B33" t="s">
+        <v>152</v>
+      </c>
+      <c r="C33" t="s">
+        <v>152</v>
+      </c>
+      <c r="D33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Z33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>309</v>
+      </c>
+      <c r="B34" t="s">
+        <v>310</v>
+      </c>
+      <c r="C34" t="s">
+        <v>311</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34"/>
+      <c r="H34" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="I34" t="s">
+        <v>30</v>
+      </c>
+      <c r="J34" t="s">
+        <v>313</v>
+      </c>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34" t="s">
+        <v>314</v>
+      </c>
+      <c r="O34"/>
+      <c r="P34" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>18</v>
+      </c>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34" t="s">
+        <v>316</v>
+      </c>
+      <c r="U34" t="s">
+        <v>33</v>
+      </c>
+      <c r="V34" t="s">
+        <v>33</v>
+      </c>
+      <c r="W34" t="s">
+        <v>317</v>
+      </c>
+      <c r="X34" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>320</v>
+      </c>
+      <c r="B35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
+      <c r="Z35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>321</v>
+      </c>
+      <c r="B36" t="s">
+        <v>322</v>
+      </c>
+      <c r="C36" t="s">
+        <v>323</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+      <c r="Z36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>324</v>
+      </c>
+      <c r="B37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Z37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>325</v>
+      </c>
+      <c r="B38" t="s">
+        <v>326</v>
+      </c>
+      <c r="C38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38"/>
+      <c r="F38" t="s">
+        <v>327</v>
+      </c>
+      <c r="G38"/>
+      <c r="H38" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="I38" t="s">
+        <v>68</v>
+      </c>
+      <c r="J38" t="s">
+        <v>329</v>
+      </c>
+      <c r="K38" t="s">
+        <v>15</v>
+      </c>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>18</v>
+      </c>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38" t="s">
+        <v>331</v>
+      </c>
+      <c r="U38" t="s">
+        <v>33</v>
+      </c>
+      <c r="V38" t="s">
+        <v>33</v>
+      </c>
+      <c r="W38" t="s">
+        <v>332</v>
+      </c>
+      <c r="X38" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>334</v>
+      </c>
+      <c r="B39" t="s">
+        <v>335</v>
+      </c>
+      <c r="C39" t="s">
+        <v>336</v>
+      </c>
+      <c r="D39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39"/>
+      <c r="F39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39"/>
+      <c r="H39" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="I39" t="s">
+        <v>208</v>
+      </c>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39" t="s">
+        <v>338</v>
+      </c>
+      <c r="O39"/>
+      <c r="P39" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>18</v>
+      </c>
+      <c r="R39" t="s">
+        <v>19</v>
+      </c>
+      <c r="S39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T39" t="s">
+        <v>340</v>
+      </c>
+      <c r="U39" t="s">
+        <v>33</v>
+      </c>
+      <c r="V39" t="s">
+        <v>114</v>
+      </c>
+      <c r="W39" t="s">
+        <v>341</v>
+      </c>
+      <c r="X39" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>344</v>
+      </c>
+      <c r="B40" t="s">
+        <v>345</v>
+      </c>
+      <c r="C40" t="s">
+        <v>279</v>
+      </c>
+      <c r="D40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40"/>
+      <c r="F40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40"/>
+      <c r="H40" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="I40" t="s">
+        <v>30</v>
+      </c>
+      <c r="J40" t="s">
+        <v>347</v>
+      </c>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40" t="s">
+        <v>348</v>
+      </c>
+      <c r="O40" t="s">
+        <v>97</v>
+      </c>
+      <c r="P40"/>
+      <c r="Q40" t="s">
+        <v>18</v>
+      </c>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40" t="s">
+        <v>33</v>
+      </c>
+      <c r="V40"/>
+      <c r="W40" t="s">
+        <v>349</v>
+      </c>
+      <c r="X40" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>351</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>352</v>
+      </c>
+      <c r="B41" t="s">
+        <v>353</v>
+      </c>
+      <c r="C41" t="s">
+        <v>152</v>
+      </c>
+      <c r="D41" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41"/>
+      <c r="Z41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>354</v>
+      </c>
+      <c r="B42" t="s">
+        <v>335</v>
+      </c>
+      <c r="C42" t="s">
+        <v>336</v>
+      </c>
+      <c r="D42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+      <c r="X42"/>
+      <c r="Z42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>355</v>
+      </c>
+      <c r="B43" t="s">
+        <v>356</v>
+      </c>
+      <c r="C43" t="s">
+        <v>357</v>
+      </c>
+      <c r="D43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43"/>
+      <c r="F43" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43"/>
+      <c r="H43" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I43" t="s">
+        <v>208</v>
+      </c>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43" t="s">
+        <v>359</v>
+      </c>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43" t="s">
+        <v>18</v>
+      </c>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43" t="s">
+        <v>360</v>
+      </c>
+      <c r="U43" t="s">
+        <v>33</v>
+      </c>
+      <c r="V43" t="s">
+        <v>33</v>
+      </c>
+      <c r="W43" t="s">
+        <v>361</v>
+      </c>
+      <c r="X43" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>363</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>364</v>
+      </c>
+      <c r="B44" t="s">
+        <v>365</v>
+      </c>
+      <c r="C44" t="s">
+        <v>323</v>
+      </c>
+      <c r="D44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+      <c r="X44"/>
+      <c r="Z44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>366</v>
+      </c>
+      <c r="B45" t="s">
+        <v>367</v>
+      </c>
+      <c r="C45" t="s">
+        <v>368</v>
+      </c>
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s">
+        <v>369</v>
+      </c>
+      <c r="F45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" t="s">
+        <v>370</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="I45" t="s">
+        <v>208</v>
+      </c>
+      <c r="J45" t="s">
+        <v>372</v>
+      </c>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45" t="s">
+        <v>373</v>
+      </c>
+      <c r="O45" t="s">
+        <v>374</v>
+      </c>
+      <c r="P45" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>18</v>
+      </c>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45" t="s">
+        <v>376</v>
+      </c>
+      <c r="U45" t="s">
+        <v>33</v>
+      </c>
+      <c r="V45" t="s">
+        <v>33</v>
+      </c>
+      <c r="W45" t="s">
+        <v>377</v>
+      </c>
+      <c r="X45" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>379</v>
+      </c>
+      <c r="B46" t="s">
+        <v>380</v>
+      </c>
+      <c r="C46" t="s">
+        <v>368</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s">
+        <v>369</v>
+      </c>
+      <c r="F46" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" t="s">
+        <v>381</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="I46" t="s">
+        <v>123</v>
+      </c>
+      <c r="J46" t="s">
+        <v>383</v>
+      </c>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46" t="s">
+        <v>384</v>
+      </c>
+      <c r="O46" t="s">
+        <v>385</v>
+      </c>
+      <c r="P46" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>18</v>
+      </c>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46" t="s">
+        <v>387</v>
+      </c>
+      <c r="U46" t="s">
+        <v>33</v>
+      </c>
+      <c r="V46" t="s">
+        <v>33</v>
+      </c>
+      <c r="W46" t="s">
+        <v>388</v>
+      </c>
+      <c r="X46" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>390</v>
+      </c>
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47"/>
+      <c r="F47" t="s">
+        <v>163</v>
+      </c>
+      <c r="G47"/>
+      <c r="H47" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="I47" t="s">
+        <v>30</v>
+      </c>
+      <c r="J47" t="s">
+        <v>392</v>
+      </c>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47" t="s">
+        <v>393</v>
+      </c>
+      <c r="O47" t="s">
+        <v>48</v>
+      </c>
+      <c r="P47" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>18</v>
+      </c>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47" t="s">
+        <v>395</v>
+      </c>
+      <c r="U47" t="s">
+        <v>33</v>
+      </c>
+      <c r="V47" t="s">
+        <v>33</v>
+      </c>
+      <c r="W47" t="s">
+        <v>396</v>
+      </c>
+      <c r="X47" t="s">
+        <v>397</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>398</v>
+      </c>
+      <c r="B48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+      <c r="X48"/>
+      <c r="Z48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B49" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C49" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D49" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" ht="57" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="X49"/>
+      <c r="Z49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B50" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C50" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D50" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="E50"/>
+      <c r="F50" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="G50"/>
+      <c r="H50" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I50" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J50" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W4" s="2" t="s">
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50" t="s">
+        <v>33</v>
+      </c>
+      <c r="V50"/>
+      <c r="W50" t="s">
         <v>79</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="X50" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
+      <c r="Z50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B51" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C51" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D51" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="E51"/>
+      <c r="F51" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G51" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H51" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="O51"/>
+      <c r="P51" t="s">
         <v>41</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="Q51" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="2" t="s">
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51" t="s">
         <v>81</v>
       </c>
-      <c r="X5" s="2" t="s">
+      <c r="X51" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
+      <c r="Z51" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B52" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C52" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D52" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="E52"/>
+      <c r="F52" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="G52"/>
+      <c r="H52" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I52" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J52" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="O52" t="s">
         <v>48</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="P52" t="s">
         <v>49</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="Q52" t="s">
         <v>18</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52" t="s">
         <v>50</v>
       </c>
-      <c r="W6" s="2" t="s">
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52" t="s">
         <v>86</v>
       </c>
-      <c r="X6" s="2" t="s">
+      <c r="X52" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
+      <c r="Z52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B53" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C53" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D53" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="E53"/>
+      <c r="F53" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="G53"/>
+      <c r="H53" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I53" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J53" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K53" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53" t="s">
         <v>48</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="P53" t="s">
         <v>53</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="Q53" t="s">
         <v>18</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53" t="s">
         <v>50</v>
       </c>
-      <c r="W7" s="2" t="s">
+      <c r="U53"/>
+      <c r="V53"/>
+      <c r="W53" t="s">
         <v>86</v>
       </c>
-      <c r="X7" s="2" t="s">
+      <c r="X53" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
+      <c r="Z53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B54" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C54" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D54" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="E54"/>
+      <c r="F54" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="G54"/>
+      <c r="H54" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I54" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J54" t="s">
         <v>60</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K54" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54" t="s">
         <v>61</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="P54" t="s">
         <v>62</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54" t="s">
         <v>20</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="T54" t="s">
         <v>63</v>
       </c>
-      <c r="W8" s="2" t="s">
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54" t="s">
         <v>88</v>
       </c>
-      <c r="X8" s="2" t="s">
+      <c r="X54" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
+      <c r="Z54" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B55" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C55" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D55" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="E55"/>
+      <c r="F55" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="G55"/>
+      <c r="H55" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I55" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J55" t="s">
         <v>65</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K55" t="s">
         <v>15</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55" t="s">
         <v>66</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="P55" t="s">
         <v>67</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="2" t="s">
+      <c r="T55" t="s">
         <v>63</v>
       </c>
-      <c r="W9" s="2" t="s">
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55" t="s">
         <v>88</v>
       </c>
-      <c r="X9" s="2" t="s">
+      <c r="X55" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
+      <c r="Z55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B56" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C56" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D56" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="E56"/>
+      <c r="F56" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="G56"/>
+      <c r="H56" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I56" t="s">
         <v>68</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J56" t="s">
         <v>69</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K56" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56" t="s">
         <v>48</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="P56" t="s">
         <v>70</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="Q56" t="s">
         <v>18</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56" t="s">
         <v>63</v>
       </c>
-      <c r="W10" s="2" t="s">
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56" t="s">
         <v>88</v>
       </c>
-      <c r="X10" s="2" t="s">
+      <c r="X56" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" ht="114" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
+      <c r="Z56" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B57" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C57" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D57" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="E57"/>
+      <c r="F57" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="G57"/>
+      <c r="H57" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I57" t="s">
         <v>59</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J57" t="s">
         <v>72</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57" t="s">
         <v>17</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="N57"/>
+      <c r="O57" t="s">
         <v>73</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="P57" t="s">
         <v>74</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="Q57" t="s">
         <v>18</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57" t="s">
         <v>75</v>
       </c>
-      <c r="W11" s="2" t="s">
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57" t="s">
         <v>90</v>
       </c>
-      <c r="X11" s="2" t="s">
+      <c r="X57" t="s">
         <v>91</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/lib/data.xlsx
+++ b/lib/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="388">
   <si>
     <t>University name</t>
   </si>
@@ -354,9 +354,6 @@
     <t>Child Advocacy Studies</t>
   </si>
   <si>
-    <t>Chaild Advocacy Studies (CAST)</t>
-  </si>
-  <si>
     <t>Minor in Child Advocacy Studies</t>
   </si>
   <si>
@@ -416,12 +413,6 @@
     <t>CAST Director and Professor Psychology</t>
   </si>
   <si>
-    <t xml:space="preserve">Northeastern Illinois University </t>
-  </si>
-  <si>
-    <t>Chicago</t>
-  </si>
-  <si>
     <t>Illinois</t>
   </si>
   <si>
@@ -458,18 +449,9 @@
     <t>Education Coordinator, Child Maltreatment Solutions Network</t>
   </si>
   <si>
-    <t xml:space="preserve">University of California -- Davis </t>
-  </si>
-  <si>
-    <t>Sacramento</t>
-  </si>
-  <si>
     <t>California</t>
   </si>
   <si>
-    <t xml:space="preserve">Brown University </t>
-  </si>
-  <si>
     <t>Providence</t>
   </si>
   <si>
@@ -540,12 +522,6 @@
   </si>
   <si>
     <t>Associate Professor, Director Child Protection Progam</t>
-  </si>
-  <si>
-    <t>Hofstra University School of Law</t>
-  </si>
-  <si>
-    <t>Hempstead</t>
   </si>
   <si>
     <t>University of Portsmouth/Leeds</t>
@@ -638,12 +614,6 @@
   </si>
   <si>
     <t>Assistant Professor/Co-Director, CW2</t>
-  </si>
-  <si>
-    <t>Universidade Federal da Bahia</t>
-  </si>
-  <si>
-    <t>Vitória da conquista</t>
   </si>
   <si>
     <t>NYU School of Medicine</t>
@@ -834,39 +804,6 @@
     <t>Associate Professor and Program Lead for Human Development and Family Science</t>
   </si>
   <si>
-    <t>University of North Texas</t>
-  </si>
-  <si>
-    <t>Denton</t>
-  </si>
-  <si>
-    <t>University of California, Davis</t>
-  </si>
-  <si>
-    <t>Davis</t>
-  </si>
-  <si>
-    <t>Psychology, Human Development, and Pediatrics</t>
-  </si>
-  <si>
-    <t>PhD</t>
-  </si>
-  <si>
-    <t>As part of a PhD in Developmental Psychology or Human Development, students can work with faculty who specialize in research and courses on child maltreatment.</t>
-  </si>
-  <si>
-    <t>http://psychology.ucdavis.edu/research/research-areas/developmental</t>
-  </si>
-  <si>
-    <t>Dr. Gail S. Goodman</t>
-  </si>
-  <si>
-    <t>ggoodman@ucdavis.edu</t>
-  </si>
-  <si>
-    <t>Distinguished Professor</t>
-  </si>
-  <si>
     <t>Howard University</t>
   </si>
   <si>
@@ -891,15 +828,6 @@
     <t>Assistant Professor</t>
   </si>
   <si>
-    <t>Jackson State University</t>
-  </si>
-  <si>
-    <t>Jackson</t>
-  </si>
-  <si>
-    <t>Mississippi</t>
-  </si>
-  <si>
     <t>University of Rhode Island</t>
   </si>
   <si>
@@ -918,9 +846,6 @@
     <t>Adjunct Professor of Psychology</t>
   </si>
   <si>
-    <t>University of Tennessee, Chattanooga</t>
-  </si>
-  <si>
     <t>California State University-Fullerton</t>
   </si>
   <si>
@@ -946,18 +871,6 @@
   </si>
   <si>
     <t>Professor of Psychology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geisel School of Medicine at Dartmouth </t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>New Hampshire</t>
-  </si>
-  <si>
-    <t>Columbia University</t>
   </si>
   <si>
     <t>Medical College of Wisconsin</t>
@@ -1011,21 +924,6 @@
     <t>Associate Professor of Pediatrics, Child Abuse Pediatrics Fellowship Program Director</t>
   </si>
   <si>
-    <t xml:space="preserve">Baylor College of Medicine </t>
-  </si>
-  <si>
-    <t>Georgia State University</t>
-  </si>
-  <si>
-    <t>Atlanta</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>UC Davis CHildren's Hospital</t>
-  </si>
-  <si>
     <t>Lynchburg College</t>
   </si>
   <si>
@@ -1071,9 +969,6 @@
     <t>We run the Child Welfare Training system for the state of Colorado with on-line and in person courses for child protection personnel.  We also have a social science post-doc and a child abuse pediatrics training program.</t>
   </si>
   <si>
-    <t>WWW.KempeCenter.org</t>
-  </si>
-  <si>
     <t>Des Runyan</t>
   </si>
   <si>
@@ -1107,15 +1002,6 @@
     <t>SCAN Pediatrician</t>
   </si>
   <si>
-    <t>University of Rochester</t>
-  </si>
-  <si>
-    <t>Rochester</t>
-  </si>
-  <si>
-    <t>University of Colorado School of Medicine</t>
-  </si>
-  <si>
     <t>University of Iowa</t>
   </si>
   <si>
@@ -1143,84 +1029,6 @@
     <t>Clinical Professor of Pediatrics</t>
   </si>
   <si>
-    <t xml:space="preserve">University of Georgia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Athens </t>
-  </si>
-  <si>
-    <t>University Name</t>
-  </si>
-  <si>
-    <t>University City</t>
-  </si>
-  <si>
-    <t>Ohio</t>
-  </si>
-  <si>
-    <t>Career Center</t>
-  </si>
-  <si>
-    <t>Other / User Entry</t>
-  </si>
-  <si>
-    <t>Name of Program Displayed / User Entry</t>
-  </si>
-  <si>
-    <t>No Cert/Degree / User Entry</t>
-  </si>
-  <si>
-    <t>Other Level of Study / User Entry</t>
-  </si>
-  <si>
-    <t>No concentration / User Entry</t>
-  </si>
-  <si>
-    <t>Program description / User entry</t>
-  </si>
-  <si>
-    <t>Program URL / User Entry</t>
-  </si>
-  <si>
-    <t>Name entered / User Entry / Not Displayed / For Internal Use Only</t>
-  </si>
-  <si>
-    <t>Email entered / User Entry / Not Displayed / For Internal Use Only</t>
-  </si>
-  <si>
-    <t>Cuyahoga Valley Career Center</t>
-  </si>
-  <si>
-    <t>Brecksville</t>
-  </si>
-  <si>
-    <t>Coding Bootcamp</t>
-  </si>
-  <si>
-    <t>CVCC Coding Bootcamp</t>
-  </si>
-  <si>
-    <t>Industry-recognized Certificate</t>
-  </si>
-  <si>
-    <t>14-week accelerated program</t>
-  </si>
-  <si>
-    <t>Cuyahoga Valley Career Center Coding Bootcamp</t>
-  </si>
-  <si>
-    <t>14 week, full-time, full-stack JavaScript coding bootcamp, designed to provide students career opportunities in software development in 3-6 months.</t>
-  </si>
-  <si>
-    <t>collectiveeducation.com/cvcc</t>
-  </si>
-  <si>
-    <t>Mark Holiday</t>
-  </si>
-  <si>
-    <t>mark@collectiveeducation.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">University of Michigan </t>
   </si>
   <si>
@@ -1245,17 +1053,175 @@
     <t>vort@umich.edu</t>
   </si>
   <si>
-    <t>University of Oklahoma Health Sciences Center</t>
-  </si>
-  <si>
     <t>Title</t>
+  </si>
+  <si>
+    <t>University of Illinois Springfield</t>
+  </si>
+  <si>
+    <t>Springfield</t>
+  </si>
+  <si>
+    <t>University of Houston</t>
+  </si>
+  <si>
+    <t>Wilmington University</t>
+  </si>
+  <si>
+    <t>New Castle</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>New Mexico State University</t>
+  </si>
+  <si>
+    <t>Las Cruces</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>Melissa Hakman</t>
+  </si>
+  <si>
+    <t>mhakman@okcu.edu</t>
+  </si>
+  <si>
+    <t>Associate Professor of Psychology/ Director of Child Advocacy Studies Training Program</t>
+  </si>
+  <si>
+    <t>Betsy Goulet</t>
+  </si>
+  <si>
+    <t>bgoul2@uis.edu</t>
+  </si>
+  <si>
+    <t>Clinical Assistant Professor/CAST Coordinator</t>
+  </si>
+  <si>
+    <t>Arnitia Walker</t>
+  </si>
+  <si>
+    <t>amitchell3@uh.edu</t>
+  </si>
+  <si>
+    <t>CWEP Director</t>
+  </si>
+  <si>
+    <t>Lori Sitler</t>
+  </si>
+  <si>
+    <t>lorraine.r.sitler@wilmu.edu</t>
+  </si>
+  <si>
+    <t>Assistant Professor; CAST Certificate Coordinator</t>
+  </si>
+  <si>
+    <t>Antoinette Laskey</t>
+  </si>
+  <si>
+    <t>antoinette.laskey@hsc.utah.edu</t>
+  </si>
+  <si>
+    <t>Esther Devall</t>
+  </si>
+  <si>
+    <t>Edevall@nmsu.edu</t>
+  </si>
+  <si>
+    <t>Professor, Family and Child Science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child Advocacy Studies Training </t>
+  </si>
+  <si>
+    <t>Minor and certificate are both available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OKCU's Child Advocacy Studies program teaches students why children are mistreated, and how best to treat these children. In this program, students will learn how to unravel a complex system. Students learn to work effectively within the multiple systems and institutions involved in maltreatment cases, and how to handle the situations with the children and their families.  Students will also learn how to intervene, prevent, and advocate.  Students will get specialized training in how to intervene and prevent child maltreatment, and learn to advocate for social change to decrease child maltreatment.
+The CAST certificate and minor are ideal for college students who plan to make a difference in young lives—but they're helpful for many different backgrounds. At OKCU, students get individualized attention due to our smaller class sizes and low faculty to student ratio.  Students are taught taught by faculty and professionals from multiple disciplines.  
+</t>
+  </si>
+  <si>
+    <t>Government/Public Policy/Public Administration</t>
+  </si>
+  <si>
+    <t>CAST</t>
+  </si>
+  <si>
+    <t>The CAST certificate was developed in January 2015 with the first course "Perspectives on Child Maltreatment and Advocacy" offered to 20 undergrads and grad students from Social Work, Psychology, Criminal Justice, Education, and Public Administration.  CAST was created by Victor Vieth at Winona State University and is now offered in nearly 50 universities.  I am the National Child Protection Training Center's national CAST consultant in addition to coordinating the program at UIS.</t>
+  </si>
+  <si>
+    <t>http://www.uis.edu/cast/</t>
+  </si>
+  <si>
+    <t>Child Welfare Education Project</t>
+  </si>
+  <si>
+    <t>Master's of Social Work</t>
+  </si>
+  <si>
+    <t>Clinical and Macro</t>
+  </si>
+  <si>
+    <t>The Child Welfare Education Project (CWEP) prepares master's level social work students for the challenging and rewarding work found in children's protective services. CWEP provides MSW students who want to pursue a child welfare career a stipend so that their tuition, books and some miscellaneous costs of studying in the Master of Social Work (MSW) program can be covered. Also included are child welfare oriented classes and field internships, special seminars and workshops focused on child welfare issues to enhance the educational experience, staff assistance to give focused advising and field internship support, and employment in Children's Protective Services (CPS) after graduation with rewarding opportunities to improve the lives of children and families. In addition, we offer child welfare resources through the National Title IV-E Website and the CWEP NewsLine that is published once or twice a semester. Faculty with child welfare experiences are instructors of required courses that aim to prepare MSW students for obtaining successful skills working with children and their families.</t>
+  </si>
+  <si>
+    <t>http://www.uh.edu/socialwork/New_research/cwep/</t>
+  </si>
+  <si>
+    <t>College of Social and Behavioral Science</t>
+  </si>
+  <si>
+    <t>Child Advocacy Studies Certificate</t>
+  </si>
+  <si>
+    <t>Certificate in Child Advocacy Studies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Child Advocacy Studies (CAST) certificate at Wilmington University was developed to prepare students interested in pursuing a profession in which they will come in contact with children: child welfare professionals, case workers, teachers, nurses and allied medical personnel, law enforcement officers, mental health professionals, day care providers, and clergy, among others. The certificate is designed to help students learn to recognize the symptoms and the effects of child maltreatment, practice interviewing techniques in a real world scenario, and identify intervention strategies. This 5 course certificate can be earned concurrently with an undergraduate degree or as a stand-alone credential. It is available in multiple formats - traditional face to face, hybrid, and fully on-line making it an attractive option for students from around the country. </t>
+  </si>
+  <si>
+    <t>http://www.wilmu.edu/behavioralscience/child-advocacy-certificate-curriculum.aspx</t>
+  </si>
+  <si>
+    <t>Center for Safe and Healthy Families</t>
+  </si>
+  <si>
+    <t>3 year post-residency fellowship program available to those who have completed a pediatric residency and possess an MD/DO degree.</t>
+  </si>
+  <si>
+    <t>Family and Consumer Sciences</t>
+  </si>
+  <si>
+    <t>Family and Child Science</t>
+  </si>
+  <si>
+    <t>Bachelor of Science</t>
+  </si>
+  <si>
+    <t>Family and Child Science is a professional area of study that focuses on the family as a system of interacting persons.  We believe that the family is the most basic unit in society.  The more effective the family unit is in meeting the needs and goals of its members, the more society benefits from having productive and well-functioning citizens.  The goal of professionals in FCS is to help families grow and develop in positive ways.</t>
+  </si>
+  <si>
+    <t>FCS.nmsu.edu</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Oklahoma City University</t>
+  </si>
+  <si>
+    <t>www.KempeCenter.org</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1267,6 +1233,14 @@
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1337,10 +1311,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1363,11 +1338,21 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1665,9 +1650,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z57"/>
+  <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1752,7 +1741,7 @@
       </c>
       <c r="X1" s="5"/>
       <c r="Y1" s="6" t="s">
-        <v>399</v>
+        <v>334</v>
       </c>
       <c r="Z1" s="6" t="s">
         <v>92</v>
@@ -1810,49 +1799,44 @@
         <v>85</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>399</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>291</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>292</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>96</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E3"/>
       <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3"/>
-      <c r="H3" s="2" t="s">
-        <v>97</v>
+        <v>293</v>
+      </c>
+      <c r="H3" t="s">
+        <v>294</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="J3" t="s">
-        <v>98</v>
-      </c>
-      <c r="K3"/>
+        <v>295</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
       <c r="L3"/>
       <c r="M3"/>
-      <c r="N3" t="s">
-        <v>99</v>
-      </c>
-      <c r="O3" t="s">
-        <v>100</v>
-      </c>
+      <c r="N3"/>
+      <c r="O3"/>
       <c r="P3" t="s">
-        <v>101</v>
+        <v>296</v>
       </c>
       <c r="Q3" t="s">
         <v>18</v>
@@ -1860,7 +1844,7 @@
       <c r="R3"/>
       <c r="S3"/>
       <c r="T3" t="s">
-        <v>102</v>
+        <v>297</v>
       </c>
       <c r="U3" t="s">
         <v>33</v>
@@ -1869,13 +1853,13 @@
         <v>33</v>
       </c>
       <c r="W3" t="s">
-        <v>103</v>
+        <v>298</v>
       </c>
       <c r="X3" t="s">
-        <v>104</v>
+        <v>299</v>
       </c>
       <c r="Y3" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="Z3" t="s">
         <v>33</v>
@@ -1883,67 +1867,59 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>109</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I4"/>
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
       <c r="J4" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="K4"/>
-      <c r="L4" t="s">
-        <v>16</v>
-      </c>
+      <c r="L4"/>
       <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
+      <c r="N4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" t="s">
+        <v>48</v>
+      </c>
       <c r="P4" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="Q4" t="s">
         <v>18</v>
       </c>
-      <c r="R4" t="s">
-        <v>19</v>
-      </c>
-      <c r="S4" t="s">
-        <v>20</v>
-      </c>
+      <c r="R4"/>
+      <c r="S4"/>
       <c r="T4" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="U4" t="s">
-        <v>114</v>
-      </c>
-      <c r="V4" t="s">
-        <v>33</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="V4"/>
       <c r="W4" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="X4" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="Z4" t="s">
         <v>33</v>
@@ -1951,63 +1927,68 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>335</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>336</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
+        <v>364</v>
+      </c>
+      <c r="H5" t="s">
         <v>121</v>
       </c>
-      <c r="G5"/>
-      <c r="H5" s="2" t="s">
+      <c r="I5" t="s">
         <v>122</v>
       </c>
-      <c r="I5" t="s">
-        <v>123</v>
-      </c>
       <c r="J5" t="s">
-        <v>124</v>
+        <v>365</v>
       </c>
       <c r="K5"/>
-      <c r="L5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5"/>
-      <c r="N5" t="s">
-        <v>125</v>
-      </c>
-      <c r="O5"/>
+      <c r="L5"/>
+      <c r="M5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5"/>
+      <c r="O5" t="s">
+        <v>121</v>
+      </c>
       <c r="P5" t="s">
-        <v>126</v>
+        <v>366</v>
       </c>
       <c r="Q5" t="s">
         <v>18</v>
       </c>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
+      <c r="R5" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" t="s">
+        <v>367</v>
+      </c>
       <c r="U5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="V5" t="s">
         <v>33</v>
       </c>
       <c r="W5" t="s">
-        <v>127</v>
+        <v>347</v>
       </c>
       <c r="X5" t="s">
-        <v>128</v>
+        <v>348</v>
       </c>
       <c r="Y5" t="s">
-        <v>129</v>
+        <v>349</v>
       </c>
       <c r="Z5" t="s">
         <v>33</v>
@@ -2015,101 +1996,135 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>245</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>246</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>247</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
+      <c r="F6" t="s">
+        <v>248</v>
+      </c>
+      <c r="H6" t="s">
+        <v>249</v>
+      </c>
+      <c r="I6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" t="s">
+        <v>250</v>
+      </c>
+      <c r="K6" t="s">
+        <v>15</v>
+      </c>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
+      <c r="O6" t="s">
+        <v>251</v>
+      </c>
+      <c r="P6" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T6" t="s">
+        <v>253</v>
+      </c>
+      <c r="U6" t="s">
+        <v>33</v>
+      </c>
+      <c r="V6" t="s">
+        <v>33</v>
+      </c>
+      <c r="W6" t="s">
+        <v>254</v>
+      </c>
+      <c r="X6" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>256</v>
+      </c>
       <c r="Z6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7"/>
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>156</v>
+      </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>137</v>
+        <v>157</v>
+      </c>
+      <c r="H7" t="s">
+        <v>158</v>
       </c>
       <c r="I7" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="J7" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="K7"/>
-      <c r="L7" t="s">
-        <v>16</v>
-      </c>
+      <c r="L7"/>
       <c r="M7"/>
       <c r="N7"/>
-      <c r="O7"/>
+      <c r="O7" t="s">
+        <v>160</v>
+      </c>
       <c r="P7" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="Q7" t="s">
         <v>18</v>
       </c>
       <c r="R7"/>
-      <c r="S7"/>
+      <c r="S7" t="s">
+        <v>20</v>
+      </c>
       <c r="T7" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="U7" t="s">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="V7" t="s">
         <v>33</v>
       </c>
       <c r="W7" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="X7" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="Y7" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="Z7" t="s">
         <v>33</v>
@@ -2117,110 +2132,168 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>326</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
       </c>
       <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="I8"/>
-      <c r="J8"/>
+      <c r="F8" t="s">
+        <v>157</v>
+      </c>
+      <c r="H8" t="s">
+        <v>327</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" t="s">
+        <v>328</v>
+      </c>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
+      <c r="N8" t="s">
+        <v>329</v>
+      </c>
+      <c r="O8" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>18</v>
+      </c>
       <c r="R8"/>
       <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
+      <c r="T8" t="s">
+        <v>331</v>
+      </c>
+      <c r="U8" t="s">
+        <v>33</v>
+      </c>
+      <c r="V8" t="s">
+        <v>33</v>
+      </c>
+      <c r="W8" t="s">
+        <v>332</v>
+      </c>
+      <c r="X8" t="s">
+        <v>333</v>
+      </c>
       <c r="Z8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="I9"/>
-      <c r="J9"/>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s">
+        <v>378</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" t="s">
+        <v>29</v>
+      </c>
       <c r="K9"/>
       <c r="L9"/>
-      <c r="M9"/>
+      <c r="M9" t="s">
+        <v>17</v>
+      </c>
       <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
+      <c r="O9" t="s">
+        <v>97</v>
+      </c>
+      <c r="P9" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>18</v>
+      </c>
       <c r="R9"/>
       <c r="S9"/>
       <c r="T9"/>
-      <c r="U9"/>
-      <c r="V9"/>
-      <c r="W9"/>
-      <c r="X9"/>
+      <c r="U9" t="s">
+        <v>33</v>
+      </c>
+      <c r="V9" t="s">
+        <v>33</v>
+      </c>
+      <c r="W9" t="s">
+        <v>356</v>
+      </c>
+      <c r="X9" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>203</v>
+      </c>
       <c r="Z9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10"/>
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>96</v>
+      </c>
       <c r="F10" t="s">
-        <v>121</v>
-      </c>
-      <c r="G10"/>
-      <c r="H10" s="2" t="s">
-        <v>153</v>
+        <v>28</v>
+      </c>
+      <c r="H10" t="s">
+        <v>97</v>
       </c>
       <c r="I10" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="J10" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
+      <c r="N10" t="s">
+        <v>99</v>
+      </c>
+      <c r="O10" t="s">
+        <v>100</v>
+      </c>
       <c r="P10" t="s">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="Q10" t="s">
         <v>18</v>
@@ -2228,7 +2301,7 @@
       <c r="R10"/>
       <c r="S10"/>
       <c r="T10" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="U10" t="s">
         <v>33</v>
@@ -2237,13 +2310,13 @@
         <v>33</v>
       </c>
       <c r="W10" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="X10" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="Y10" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="Z10" t="s">
         <v>33</v>
@@ -2251,53 +2324,46 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>162</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E11"/>
       <c r="F11" t="s">
-        <v>163</v>
-      </c>
-      <c r="G11"/>
-      <c r="H11" s="2" t="s">
-        <v>164</v>
+        <v>28</v>
+      </c>
+      <c r="H11" t="s">
+        <v>197</v>
       </c>
       <c r="I11" t="s">
-        <v>30</v>
+        <v>198</v>
       </c>
       <c r="J11" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
-      <c r="N11"/>
+      <c r="N11" t="s">
+        <v>200</v>
+      </c>
       <c r="O11" t="s">
-        <v>166</v>
-      </c>
-      <c r="P11" t="s">
-        <v>167</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="P11"/>
       <c r="Q11" t="s">
         <v>18</v>
       </c>
       <c r="R11"/>
-      <c r="S11" t="s">
-        <v>20</v>
-      </c>
-      <c r="T11" t="s">
-        <v>168</v>
-      </c>
+      <c r="S11"/>
+      <c r="T11"/>
       <c r="U11" t="s">
         <v>33</v>
       </c>
@@ -2305,13 +2371,13 @@
         <v>33</v>
       </c>
       <c r="W11" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="X11" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="Y11" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="Z11" t="s">
         <v>33</v>
@@ -2319,90 +2385,106 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="B12" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="C12" t="s">
-        <v>152</v>
+        <v>217</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="I12"/>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" t="s">
+        <v>218</v>
+      </c>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12"/>
-      <c r="N12"/>
+      <c r="N12" t="s">
+        <v>219</v>
+      </c>
       <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
+      <c r="P12" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>18</v>
+      </c>
       <c r="R12"/>
       <c r="S12"/>
       <c r="T12"/>
-      <c r="U12"/>
-      <c r="V12"/>
-      <c r="W12"/>
-      <c r="X12"/>
+      <c r="U12" t="s">
+        <v>33</v>
+      </c>
+      <c r="V12" t="s">
+        <v>33</v>
+      </c>
+      <c r="W12" t="s">
+        <v>221</v>
+      </c>
+      <c r="X12" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>223</v>
+      </c>
       <c r="Z12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>280</v>
       </c>
       <c r="B13" t="s">
-        <v>175</v>
-      </c>
-      <c r="C13"/>
+        <v>281</v>
+      </c>
+      <c r="C13" t="s">
+        <v>282</v>
+      </c>
       <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>176</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E13"/>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>177</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>178</v>
+        <v>28</v>
+      </c>
+      <c r="H13" t="s">
+        <v>283</v>
       </c>
       <c r="I13" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="J13" t="s">
-        <v>179</v>
-      </c>
-      <c r="K13" t="s">
-        <v>15</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="K13"/>
       <c r="L13"/>
-      <c r="M13" t="s">
-        <v>17</v>
-      </c>
-      <c r="N13"/>
-      <c r="O13" t="s">
-        <v>180</v>
-      </c>
+      <c r="M13"/>
+      <c r="N13" t="s">
+        <v>285</v>
+      </c>
+      <c r="O13"/>
       <c r="P13" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q13"/>
+        <v>286</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>18</v>
+      </c>
       <c r="R13"/>
-      <c r="S13" t="s">
-        <v>20</v>
-      </c>
+      <c r="S13"/>
       <c r="T13" t="s">
-        <v>182</v>
+        <v>287</v>
       </c>
       <c r="U13" t="s">
         <v>33</v>
@@ -2411,77 +2493,78 @@
         <v>33</v>
       </c>
       <c r="W13" t="s">
-        <v>183</v>
+        <v>288</v>
       </c>
       <c r="X13" t="s">
-        <v>184</v>
+        <v>289</v>
       </c>
       <c r="Y13" t="s">
-        <v>185</v>
+        <v>290</v>
       </c>
       <c r="Z13" t="s">
-        <v>114</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>186</v>
+        <v>300</v>
       </c>
       <c r="B14" t="s">
-        <v>187</v>
+        <v>301</v>
       </c>
       <c r="C14" t="s">
-        <v>188</v>
+        <v>302</v>
       </c>
       <c r="D14" t="s">
         <v>24</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14"/>
-      <c r="H14" s="2" t="s">
-        <v>189</v>
+        <v>28</v>
+      </c>
+      <c r="H14" t="s">
+        <v>303</v>
       </c>
       <c r="I14" t="s">
-        <v>68</v>
-      </c>
-      <c r="J14" t="s">
-        <v>69</v>
-      </c>
-      <c r="K14" t="s">
-        <v>15</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="J14"/>
+      <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
-      <c r="N14"/>
+      <c r="N14" t="s">
+        <v>304</v>
+      </c>
       <c r="O14"/>
       <c r="P14" t="s">
-        <v>190</v>
+        <v>305</v>
       </c>
       <c r="Q14" t="s">
         <v>18</v>
       </c>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14" t="s">
-        <v>191</v>
+      <c r="R14" t="s">
+        <v>19</v>
+      </c>
+      <c r="S14" t="s">
+        <v>20</v>
+      </c>
+      <c r="T14" s="8" t="s">
+        <v>387</v>
       </c>
       <c r="U14" t="s">
         <v>33</v>
       </c>
       <c r="V14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="W14" t="s">
-        <v>192</v>
+        <v>306</v>
       </c>
       <c r="X14" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="Y14" t="s">
-        <v>194</v>
+        <v>308</v>
       </c>
       <c r="Z14" t="s">
         <v>33</v>
@@ -2489,63 +2572,58 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>195</v>
+        <v>309</v>
       </c>
       <c r="B15" t="s">
-        <v>196</v>
+        <v>310</v>
       </c>
       <c r="C15" t="s">
-        <v>135</v>
+        <v>258</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15"/>
-      <c r="H15" s="2" t="s">
-        <v>197</v>
+        <v>28</v>
+      </c>
+      <c r="H15" t="s">
+        <v>311</v>
       </c>
       <c r="I15" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="J15" t="s">
-        <v>60</v>
+        <v>312</v>
       </c>
       <c r="K15"/>
       <c r="L15"/>
-      <c r="M15" t="s">
-        <v>17</v>
-      </c>
-      <c r="N15"/>
+      <c r="M15"/>
+      <c r="N15" t="s">
+        <v>313</v>
+      </c>
       <c r="O15" t="s">
-        <v>198</v>
-      </c>
-      <c r="P15" t="s">
-        <v>199</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="P15"/>
       <c r="Q15" t="s">
         <v>18</v>
       </c>
       <c r="R15"/>
       <c r="S15"/>
-      <c r="T15" t="s">
-        <v>200</v>
-      </c>
+      <c r="T15"/>
       <c r="U15" t="s">
         <v>33</v>
       </c>
       <c r="V15"/>
       <c r="W15" t="s">
-        <v>201</v>
+        <v>314</v>
       </c>
       <c r="X15" t="s">
-        <v>202</v>
+        <v>315</v>
       </c>
       <c r="Y15" t="s">
-        <v>203</v>
+        <v>316</v>
       </c>
       <c r="Z15" t="s">
         <v>33</v>
@@ -2553,74 +2631,96 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>204</v>
+        <v>317</v>
       </c>
       <c r="B16" t="s">
-        <v>205</v>
+        <v>318</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16"/>
+        <v>319</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
       <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="I16"/>
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" t="s">
+        <v>320</v>
+      </c>
+      <c r="I16" t="s">
+        <v>198</v>
+      </c>
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
-      <c r="N16"/>
+      <c r="N16" t="s">
+        <v>321</v>
+      </c>
       <c r="O16"/>
       <c r="P16"/>
-      <c r="Q16"/>
+      <c r="Q16" t="s">
+        <v>18</v>
+      </c>
       <c r="R16"/>
       <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
+      <c r="T16" t="s">
+        <v>322</v>
+      </c>
+      <c r="U16" t="s">
+        <v>33</v>
+      </c>
+      <c r="V16" t="s">
+        <v>33</v>
+      </c>
+      <c r="W16" t="s">
+        <v>323</v>
+      </c>
+      <c r="X16" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>325</v>
+      </c>
       <c r="Z16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>206</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>152</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="s">
         <v>28</v>
       </c>
-      <c r="G17"/>
-      <c r="H17" s="2" t="s">
-        <v>207</v>
+      <c r="H17" t="s">
+        <v>29</v>
       </c>
       <c r="I17" t="s">
-        <v>208</v>
+        <v>30</v>
       </c>
       <c r="J17" t="s">
-        <v>209</v>
+        <v>31</v>
       </c>
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17"/>
       <c r="N17" t="s">
-        <v>210</v>
-      </c>
-      <c r="O17" t="s">
-        <v>209</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="O17"/>
       <c r="P17"/>
       <c r="Q17" t="s">
         <v>18</v>
@@ -2631,17 +2731,12 @@
       <c r="U17" t="s">
         <v>33</v>
       </c>
-      <c r="V17" t="s">
-        <v>33</v>
-      </c>
+      <c r="V17"/>
       <c r="W17" t="s">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>213</v>
+        <v>80</v>
       </c>
       <c r="Z17" t="s">
         <v>33</v>
@@ -2649,40 +2744,41 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>214</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>215</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>216</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
       </c>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>121</v>
-      </c>
-      <c r="G18"/>
-      <c r="H18" s="2" t="s">
-        <v>217</v>
+        <v>28</v>
+      </c>
+      <c r="H18" t="s">
+        <v>51</v>
       </c>
       <c r="I18" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="J18" t="s">
-        <v>218</v>
-      </c>
-      <c r="K18"/>
+        <v>52</v>
+      </c>
+      <c r="K18" t="s">
+        <v>15</v>
+      </c>
       <c r="L18"/>
       <c r="M18"/>
-      <c r="N18" t="s">
-        <v>219</v>
-      </c>
-      <c r="O18"/>
+      <c r="N18"/>
+      <c r="O18" t="s">
+        <v>48</v>
+      </c>
       <c r="P18" t="s">
-        <v>220</v>
+        <v>53</v>
       </c>
       <c r="Q18" t="s">
         <v>18</v>
@@ -2690,82 +2786,87 @@
       <c r="R18"/>
       <c r="S18"/>
       <c r="T18" t="s">
-        <v>221</v>
+        <v>50</v>
       </c>
       <c r="U18" t="s">
         <v>33</v>
       </c>
-      <c r="V18" t="s">
-        <v>33</v>
-      </c>
+      <c r="V18"/>
       <c r="W18" t="s">
-        <v>222</v>
+        <v>86</v>
       </c>
       <c r="X18" t="s">
-        <v>223</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>224</v>
+        <v>87</v>
       </c>
       <c r="Z18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:26" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>225</v>
+        <v>338</v>
       </c>
       <c r="B19" t="s">
-        <v>226</v>
+        <v>339</v>
       </c>
       <c r="C19" t="s">
-        <v>227</v>
+        <v>340</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E19"/>
       <c r="F19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19"/>
-      <c r="H19" s="2" t="s">
-        <v>228</v>
+        <v>14</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H19" t="s">
+        <v>374</v>
       </c>
       <c r="I19" t="s">
-        <v>30</v>
-      </c>
-      <c r="J19"/>
+        <v>122</v>
+      </c>
+      <c r="J19" t="s">
+        <v>375</v>
+      </c>
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19"/>
       <c r="N19" t="s">
-        <v>229</v>
+        <v>122</v>
       </c>
       <c r="O19"/>
       <c r="P19" t="s">
-        <v>230</v>
+        <v>376</v>
       </c>
       <c r="Q19" t="s">
         <v>18</v>
       </c>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
+      <c r="R19" t="s">
+        <v>19</v>
+      </c>
+      <c r="S19" t="s">
+        <v>20</v>
+      </c>
+      <c r="T19" t="s">
+        <v>377</v>
+      </c>
       <c r="U19" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="V19" t="s">
         <v>33</v>
       </c>
       <c r="W19" t="s">
-        <v>231</v>
+        <v>353</v>
       </c>
       <c r="X19" t="s">
-        <v>232</v>
+        <v>354</v>
       </c>
       <c r="Y19" t="s">
-        <v>233</v>
+        <v>355</v>
       </c>
       <c r="Z19" t="s">
         <v>33</v>
@@ -2773,342 +2874,391 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>234</v>
+        <v>341</v>
       </c>
       <c r="B20" t="s">
-        <v>235</v>
+        <v>342</v>
       </c>
       <c r="C20" t="s">
-        <v>236</v>
+        <v>343</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>237</v>
-      </c>
-      <c r="G20"/>
-      <c r="H20" s="2" t="s">
-        <v>238</v>
+        <v>14</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H20" t="s">
+        <v>381</v>
       </c>
       <c r="I20" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="J20" t="s">
-        <v>239</v>
-      </c>
-      <c r="K20"/>
+        <v>382</v>
+      </c>
+      <c r="K20" t="s">
+        <v>15</v>
+      </c>
       <c r="L20"/>
-      <c r="M20" t="s">
-        <v>17</v>
-      </c>
+      <c r="M20"/>
       <c r="N20"/>
-      <c r="O20" t="s">
-        <v>240</v>
-      </c>
+      <c r="O20"/>
       <c r="P20" t="s">
-        <v>241</v>
+        <v>383</v>
       </c>
       <c r="Q20" t="s">
         <v>18</v>
       </c>
       <c r="R20"/>
-      <c r="S20" t="s">
-        <v>20</v>
-      </c>
+      <c r="S20"/>
       <c r="T20" t="s">
-        <v>242</v>
+        <v>384</v>
       </c>
       <c r="U20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="V20" t="s">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="W20" t="s">
-        <v>243</v>
+        <v>358</v>
       </c>
       <c r="X20" t="s">
-        <v>244</v>
+        <v>359</v>
       </c>
       <c r="Y20" t="s">
-        <v>245</v>
+        <v>360</v>
       </c>
       <c r="Z20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>246</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
-        <v>247</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="D21" t="s">
         <v>24</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21"/>
-      <c r="H21" s="2" t="s">
-        <v>248</v>
+        <v>14</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" t="s">
+        <v>121</v>
       </c>
       <c r="I21" t="s">
         <v>68</v>
       </c>
       <c r="J21" t="s">
-        <v>69</v>
-      </c>
-      <c r="K21" t="s">
-        <v>15</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="K21"/>
       <c r="L21" t="s">
         <v>16</v>
       </c>
       <c r="M21"/>
       <c r="N21"/>
-      <c r="O21" t="s">
-        <v>249</v>
-      </c>
+      <c r="O21"/>
       <c r="P21" t="s">
-        <v>250</v>
+        <v>111</v>
       </c>
       <c r="Q21" t="s">
         <v>18</v>
       </c>
-      <c r="R21"/>
+      <c r="R21" t="s">
+        <v>19</v>
+      </c>
       <c r="S21" t="s">
         <v>20</v>
       </c>
       <c r="T21" t="s">
-        <v>251</v>
+        <v>112</v>
       </c>
       <c r="U21" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="V21" t="s">
+        <v>33</v>
+      </c>
+      <c r="W21" t="s">
         <v>114</v>
       </c>
-      <c r="W21" t="s">
-        <v>252</v>
-      </c>
       <c r="X21" t="s">
-        <v>253</v>
+        <v>115</v>
       </c>
       <c r="Y21" t="s">
-        <v>254</v>
+        <v>116</v>
       </c>
       <c r="Z21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:26" ht="57" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>255</v>
+        <v>130</v>
       </c>
       <c r="B22" t="s">
-        <v>256</v>
+        <v>131</v>
       </c>
       <c r="C22" t="s">
-        <v>257</v>
+        <v>132</v>
       </c>
       <c r="D22" t="s">
         <v>24</v>
       </c>
       <c r="E22"/>
       <c r="F22" t="s">
-        <v>258</v>
-      </c>
-      <c r="G22"/>
-      <c r="H22" s="2" t="s">
-        <v>259</v>
+        <v>14</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H22" t="s">
+        <v>134</v>
       </c>
       <c r="I22" t="s">
         <v>68</v>
       </c>
       <c r="J22" t="s">
-        <v>260</v>
-      </c>
-      <c r="K22" t="s">
-        <v>15</v>
-      </c>
-      <c r="L22"/>
+        <v>135</v>
+      </c>
+      <c r="K22"/>
+      <c r="L22" t="s">
+        <v>16</v>
+      </c>
       <c r="M22"/>
       <c r="N22"/>
-      <c r="O22" t="s">
-        <v>261</v>
-      </c>
+      <c r="O22"/>
       <c r="P22" t="s">
-        <v>262</v>
+        <v>136</v>
       </c>
       <c r="Q22" t="s">
         <v>18</v>
       </c>
-      <c r="R22" t="s">
-        <v>19</v>
-      </c>
-      <c r="S22" t="s">
-        <v>20</v>
-      </c>
+      <c r="R22"/>
+      <c r="S22"/>
       <c r="T22" t="s">
-        <v>263</v>
+        <v>137</v>
       </c>
       <c r="U22" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="V22" t="s">
         <v>33</v>
       </c>
       <c r="W22" t="s">
-        <v>264</v>
+        <v>138</v>
       </c>
       <c r="X22" t="s">
-        <v>265</v>
+        <v>139</v>
       </c>
       <c r="Y22" t="s">
-        <v>266</v>
+        <v>140</v>
       </c>
       <c r="Z22" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>267</v>
+        <v>166</v>
       </c>
       <c r="B23" t="s">
-        <v>268</v>
-      </c>
-      <c r="C23" t="s">
-        <v>95</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="C23"/>
       <c r="D23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>168</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H23" t="s">
+        <v>170</v>
+      </c>
+      <c r="I23" t="s">
+        <v>59</v>
+      </c>
+      <c r="J23" t="s">
+        <v>171</v>
+      </c>
+      <c r="K23" t="s">
+        <v>15</v>
+      </c>
       <c r="L23"/>
-      <c r="M23"/>
+      <c r="M23" t="s">
+        <v>17</v>
+      </c>
       <c r="N23"/>
-      <c r="O23"/>
-      <c r="P23"/>
+      <c r="O23" t="s">
+        <v>172</v>
+      </c>
+      <c r="P23" t="s">
+        <v>173</v>
+      </c>
       <c r="Q23"/>
       <c r="R23"/>
-      <c r="S23"/>
-      <c r="T23"/>
-      <c r="U23"/>
-      <c r="V23"/>
-      <c r="W23"/>
-      <c r="X23"/>
+      <c r="S23" t="s">
+        <v>20</v>
+      </c>
+      <c r="T23" t="s">
+        <v>174</v>
+      </c>
+      <c r="U23" t="s">
+        <v>33</v>
+      </c>
+      <c r="V23" t="s">
+        <v>33</v>
+      </c>
+      <c r="W23" t="s">
+        <v>175</v>
+      </c>
+      <c r="X23" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>177</v>
+      </c>
       <c r="Z23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:26" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>267</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>268</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="I24"/>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" t="s">
+        <v>198</v>
+      </c>
       <c r="J24"/>
       <c r="K24"/>
       <c r="L24"/>
       <c r="M24"/>
-      <c r="N24"/>
+      <c r="N24" t="s">
+        <v>40</v>
+      </c>
       <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
+      <c r="P24" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>18</v>
+      </c>
       <c r="R24"/>
       <c r="S24"/>
       <c r="T24"/>
-      <c r="U24"/>
-      <c r="V24"/>
-      <c r="W24"/>
-      <c r="X24"/>
+      <c r="U24" t="s">
+        <v>113</v>
+      </c>
+      <c r="V24" t="s">
+        <v>33</v>
+      </c>
+      <c r="W24" t="s">
+        <v>81</v>
+      </c>
+      <c r="X24" t="s">
+        <v>82</v>
+      </c>
       <c r="Z24" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>269</v>
+        <v>386</v>
       </c>
       <c r="B25" t="s">
-        <v>270</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E25"/>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>271</v>
+        <v>120</v>
+      </c>
+      <c r="H25" t="s">
+        <v>361</v>
       </c>
       <c r="I25" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J25" t="s">
-        <v>272</v>
-      </c>
-      <c r="K25" t="s">
-        <v>15</v>
-      </c>
-      <c r="L25"/>
+        <v>362</v>
+      </c>
+      <c r="K25"/>
+      <c r="L25" t="s">
+        <v>16</v>
+      </c>
       <c r="M25"/>
       <c r="N25"/>
       <c r="O25"/>
       <c r="P25" t="s">
-        <v>273</v>
+        <v>363</v>
       </c>
       <c r="Q25" t="s">
         <v>18</v>
       </c>
       <c r="R25"/>
       <c r="S25"/>
-      <c r="T25" t="s">
-        <v>274</v>
-      </c>
+      <c r="T25"/>
       <c r="U25" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="V25" t="s">
         <v>33</v>
       </c>
       <c r="W25" t="s">
-        <v>275</v>
+        <v>344</v>
       </c>
       <c r="X25" t="s">
-        <v>276</v>
+        <v>345</v>
       </c>
       <c r="Y25" t="s">
-        <v>277</v>
+        <v>346</v>
       </c>
       <c r="Z25" t="s">
         <v>33</v>
@@ -3116,87 +3266,113 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>195</v>
+        <v>117</v>
       </c>
       <c r="B26" t="s">
-        <v>196</v>
+        <v>118</v>
       </c>
       <c r="C26" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="I26"/>
-      <c r="J26"/>
+      <c r="F26" t="s">
+        <v>120</v>
+      </c>
+      <c r="H26" t="s">
+        <v>121</v>
+      </c>
+      <c r="I26" t="s">
+        <v>122</v>
+      </c>
+      <c r="J26" t="s">
+        <v>123</v>
+      </c>
       <c r="K26"/>
-      <c r="L26"/>
+      <c r="L26" t="s">
+        <v>16</v>
+      </c>
       <c r="M26"/>
-      <c r="N26"/>
+      <c r="N26" t="s">
+        <v>124</v>
+      </c>
       <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
+      <c r="P26" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>18</v>
+      </c>
       <c r="R26"/>
       <c r="S26"/>
       <c r="T26"/>
-      <c r="U26"/>
-      <c r="V26"/>
-      <c r="W26"/>
-      <c r="X26"/>
+      <c r="U26" t="s">
+        <v>113</v>
+      </c>
+      <c r="V26" t="s">
+        <v>33</v>
+      </c>
+      <c r="W26" t="s">
+        <v>126</v>
+      </c>
+      <c r="X26" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>128</v>
+      </c>
       <c r="Z26" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>278</v>
+        <v>144</v>
       </c>
       <c r="B27" t="s">
-        <v>279</v>
+        <v>145</v>
       </c>
       <c r="C27" t="s">
-        <v>280</v>
+        <v>146</v>
       </c>
       <c r="D27" t="s">
         <v>37</v>
       </c>
       <c r="E27"/>
       <c r="F27" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27"/>
-      <c r="H27" s="2" t="s">
-        <v>281</v>
+        <v>120</v>
+      </c>
+      <c r="H27" t="s">
+        <v>147</v>
       </c>
       <c r="I27" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="J27" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="K27"/>
       <c r="L27"/>
-      <c r="M27" t="s">
-        <v>17</v>
-      </c>
-      <c r="N27"/>
+      <c r="M27"/>
+      <c r="N27" t="s">
+        <v>385</v>
+      </c>
       <c r="O27" t="s">
-        <v>282</v>
-      </c>
-      <c r="P27"/>
+        <v>385</v>
+      </c>
+      <c r="P27" t="s">
+        <v>149</v>
+      </c>
       <c r="Q27" t="s">
         <v>18</v>
       </c>
-      <c r="R27" t="s">
-        <v>19</v>
-      </c>
-      <c r="S27" t="s">
-        <v>20</v>
-      </c>
-      <c r="T27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27" t="s">
+        <v>150</v>
+      </c>
       <c r="U27" t="s">
         <v>33</v>
       </c>
@@ -3204,13 +3380,13 @@
         <v>33</v>
       </c>
       <c r="W27" t="s">
-        <v>283</v>
+        <v>151</v>
       </c>
       <c r="X27" t="s">
-        <v>284</v>
+        <v>152</v>
       </c>
       <c r="Y27" t="s">
-        <v>285</v>
+        <v>153</v>
       </c>
       <c r="Z27" t="s">
         <v>33</v>
@@ -3218,72 +3394,98 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>286</v>
+        <v>204</v>
       </c>
       <c r="B28" t="s">
-        <v>287</v>
+        <v>205</v>
       </c>
       <c r="C28" t="s">
-        <v>288</v>
+        <v>206</v>
       </c>
       <c r="D28" t="s">
         <v>24</v>
       </c>
       <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="I28"/>
-      <c r="J28"/>
+      <c r="F28" t="s">
+        <v>120</v>
+      </c>
+      <c r="H28" t="s">
+        <v>207</v>
+      </c>
+      <c r="I28" t="s">
+        <v>64</v>
+      </c>
+      <c r="J28" t="s">
+        <v>208</v>
+      </c>
       <c r="K28"/>
       <c r="L28"/>
       <c r="M28"/>
-      <c r="N28"/>
+      <c r="N28" t="s">
+        <v>209</v>
+      </c>
       <c r="O28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
+      <c r="P28" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>18</v>
+      </c>
       <c r="R28"/>
       <c r="S28"/>
-      <c r="T28"/>
-      <c r="U28"/>
-      <c r="V28"/>
-      <c r="W28"/>
-      <c r="X28"/>
+      <c r="T28" t="s">
+        <v>211</v>
+      </c>
+      <c r="U28" t="s">
+        <v>33</v>
+      </c>
+      <c r="V28" t="s">
+        <v>33</v>
+      </c>
+      <c r="W28" t="s">
+        <v>212</v>
+      </c>
+      <c r="X28" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>214</v>
+      </c>
       <c r="Z28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="B29" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C29" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D29" t="s">
         <v>24</v>
       </c>
       <c r="E29"/>
       <c r="F29" t="s">
-        <v>121</v>
-      </c>
-      <c r="G29"/>
-      <c r="H29" s="2" t="s">
-        <v>290</v>
+        <v>120</v>
+      </c>
+      <c r="H29" t="s">
+        <v>266</v>
       </c>
       <c r="I29" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="J29" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="K29"/>
       <c r="L29"/>
       <c r="M29"/>
       <c r="N29" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="O29"/>
       <c r="P29"/>
@@ -3300,13 +3502,13 @@
         <v>33</v>
       </c>
       <c r="W29" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="X29" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="Y29" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="Z29" t="s">
         <v>33</v>
@@ -3314,101 +3516,131 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="B30" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="C30" t="s">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
       </c>
       <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
+      <c r="F30" t="s">
+        <v>120</v>
+      </c>
+      <c r="H30" t="s">
+        <v>273</v>
+      </c>
+      <c r="I30" t="s">
+        <v>59</v>
+      </c>
+      <c r="J30" t="s">
+        <v>274</v>
+      </c>
+      <c r="K30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L30" t="s">
+        <v>16</v>
+      </c>
       <c r="M30"/>
       <c r="N30"/>
       <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
-      <c r="R30"/>
+      <c r="P30" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>18</v>
+      </c>
+      <c r="R30" t="s">
+        <v>19</v>
+      </c>
       <c r="S30"/>
-      <c r="T30"/>
-      <c r="U30"/>
+      <c r="T30" t="s">
+        <v>276</v>
+      </c>
+      <c r="U30" t="s">
+        <v>33</v>
+      </c>
       <c r="V30"/>
-      <c r="W30"/>
-      <c r="X30"/>
+      <c r="W30" t="s">
+        <v>277</v>
+      </c>
+      <c r="X30" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>279</v>
+      </c>
       <c r="Z30" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>296</v>
+        <v>224</v>
       </c>
       <c r="B31" t="s">
-        <v>297</v>
+        <v>225</v>
       </c>
       <c r="C31" t="s">
-        <v>146</v>
+        <v>226</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E31"/>
       <c r="F31" t="s">
-        <v>121</v>
-      </c>
-      <c r="G31"/>
-      <c r="H31" s="2" t="s">
-        <v>298</v>
+        <v>227</v>
+      </c>
+      <c r="H31" t="s">
+        <v>228</v>
       </c>
       <c r="I31" t="s">
         <v>59</v>
       </c>
       <c r="J31" t="s">
-        <v>299</v>
-      </c>
-      <c r="K31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L31" t="s">
-        <v>16</v>
-      </c>
-      <c r="M31"/>
+        <v>229</v>
+      </c>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31" t="s">
+        <v>17</v>
+      </c>
       <c r="N31"/>
-      <c r="O31"/>
+      <c r="O31" t="s">
+        <v>230</v>
+      </c>
       <c r="P31" t="s">
-        <v>300</v>
+        <v>231</v>
       </c>
       <c r="Q31" t="s">
         <v>18</v>
       </c>
-      <c r="R31" t="s">
-        <v>19</v>
-      </c>
-      <c r="S31"/>
+      <c r="R31"/>
+      <c r="S31" t="s">
+        <v>20</v>
+      </c>
       <c r="T31" t="s">
-        <v>301</v>
+        <v>232</v>
       </c>
       <c r="U31" t="s">
-        <v>33</v>
-      </c>
-      <c r="V31"/>
+        <v>113</v>
+      </c>
+      <c r="V31" t="s">
+        <v>113</v>
+      </c>
       <c r="W31" t="s">
-        <v>302</v>
+        <v>233</v>
       </c>
       <c r="X31" t="s">
-        <v>303</v>
+        <v>234</v>
       </c>
       <c r="Y31" t="s">
-        <v>304</v>
+        <v>235</v>
       </c>
       <c r="Z31" t="s">
         <v>33</v>
@@ -3416,112 +3648,171 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="B32" t="s">
-        <v>306</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
-        <v>307</v>
+        <v>95</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
+      <c r="F32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H32" t="s">
+        <v>368</v>
+      </c>
+      <c r="I32" t="s">
+        <v>59</v>
+      </c>
+      <c r="J32" t="s">
+        <v>369</v>
+      </c>
+      <c r="K32" t="s">
+        <v>15</v>
+      </c>
       <c r="L32"/>
       <c r="M32"/>
-      <c r="N32"/>
+      <c r="N32" t="s">
+        <v>370</v>
+      </c>
       <c r="O32"/>
-      <c r="P32"/>
-      <c r="Q32"/>
+      <c r="P32" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>18</v>
+      </c>
       <c r="R32"/>
-      <c r="S32"/>
-      <c r="T32"/>
-      <c r="U32"/>
-      <c r="V32"/>
-      <c r="W32"/>
-      <c r="X32"/>
+      <c r="S32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T32" t="s">
+        <v>372</v>
+      </c>
+      <c r="U32" t="s">
+        <v>33</v>
+      </c>
+      <c r="V32" t="s">
+        <v>113</v>
+      </c>
+      <c r="W32" t="s">
+        <v>350</v>
+      </c>
+      <c r="X32" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>352</v>
+      </c>
       <c r="Z32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>308</v>
+        <v>178</v>
       </c>
       <c r="B33" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="C33" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
+      <c r="F33" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" t="s">
+        <v>181</v>
+      </c>
+      <c r="I33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J33" t="s">
+        <v>69</v>
+      </c>
+      <c r="K33" t="s">
+        <v>15</v>
+      </c>
       <c r="L33"/>
       <c r="M33"/>
       <c r="N33"/>
       <c r="O33"/>
-      <c r="P33"/>
-      <c r="Q33"/>
+      <c r="P33" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>18</v>
+      </c>
       <c r="R33"/>
       <c r="S33"/>
-      <c r="T33"/>
-      <c r="U33"/>
-      <c r="V33"/>
-      <c r="W33"/>
-      <c r="X33"/>
+      <c r="T33" t="s">
+        <v>183</v>
+      </c>
+      <c r="U33" t="s">
+        <v>33</v>
+      </c>
+      <c r="V33" t="s">
+        <v>113</v>
+      </c>
+      <c r="W33" t="s">
+        <v>184</v>
+      </c>
+      <c r="X33" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>186</v>
+      </c>
       <c r="Z33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>309</v>
+        <v>187</v>
       </c>
       <c r="B34" t="s">
-        <v>310</v>
+        <v>188</v>
       </c>
       <c r="C34" t="s">
-        <v>311</v>
+        <v>132</v>
       </c>
       <c r="D34" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E34"/>
       <c r="F34" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34"/>
-      <c r="H34" s="2" t="s">
-        <v>312</v>
+        <v>57</v>
+      </c>
+      <c r="H34" t="s">
+        <v>189</v>
       </c>
       <c r="I34" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="J34" t="s">
-        <v>313</v>
+        <v>60</v>
       </c>
       <c r="K34"/>
       <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34" t="s">
-        <v>314</v>
-      </c>
-      <c r="O34"/>
+      <c r="M34" t="s">
+        <v>17</v>
+      </c>
+      <c r="N34"/>
+      <c r="O34" t="s">
+        <v>190</v>
+      </c>
       <c r="P34" t="s">
-        <v>315</v>
+        <v>191</v>
       </c>
       <c r="Q34" t="s">
         <v>18</v>
@@ -3529,22 +3820,20 @@
       <c r="R34"/>
       <c r="S34"/>
       <c r="T34" t="s">
-        <v>316</v>
+        <v>192</v>
       </c>
       <c r="U34" t="s">
         <v>33</v>
       </c>
-      <c r="V34" t="s">
-        <v>33</v>
-      </c>
+      <c r="V34"/>
       <c r="W34" t="s">
-        <v>317</v>
+        <v>193</v>
       </c>
       <c r="X34" t="s">
-        <v>318</v>
+        <v>194</v>
       </c>
       <c r="Y34" t="s">
-        <v>319</v>
+        <v>195</v>
       </c>
       <c r="Z34" t="s">
         <v>33</v>
@@ -3552,138 +3841,223 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>320</v>
+        <v>236</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>237</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="D35" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
+      <c r="F35" t="s">
+        <v>57</v>
+      </c>
+      <c r="H35" t="s">
+        <v>238</v>
+      </c>
+      <c r="I35" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" t="s">
+        <v>15</v>
+      </c>
+      <c r="L35" t="s">
+        <v>16</v>
+      </c>
       <c r="M35"/>
       <c r="N35"/>
-      <c r="O35"/>
-      <c r="P35"/>
-      <c r="Q35"/>
+      <c r="O35" t="s">
+        <v>239</v>
+      </c>
+      <c r="P35" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>18</v>
+      </c>
       <c r="R35"/>
-      <c r="S35"/>
-      <c r="T35"/>
-      <c r="U35"/>
-      <c r="V35"/>
-      <c r="W35"/>
-      <c r="X35"/>
+      <c r="S35" t="s">
+        <v>20</v>
+      </c>
+      <c r="T35" t="s">
+        <v>241</v>
+      </c>
+      <c r="U35" t="s">
+        <v>33</v>
+      </c>
+      <c r="V35" t="s">
+        <v>113</v>
+      </c>
+      <c r="W35" t="s">
+        <v>242</v>
+      </c>
+      <c r="X35" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>244</v>
+      </c>
       <c r="Z35" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>321</v>
+        <v>257</v>
       </c>
       <c r="B36" t="s">
-        <v>322</v>
+        <v>258</v>
       </c>
       <c r="C36" t="s">
-        <v>323</v>
+        <v>259</v>
       </c>
       <c r="D36" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="I36"/>
-      <c r="J36"/>
+      <c r="F36" t="s">
+        <v>57</v>
+      </c>
+      <c r="H36" t="s">
+        <v>260</v>
+      </c>
+      <c r="I36" t="s">
+        <v>59</v>
+      </c>
+      <c r="J36" t="s">
+        <v>60</v>
+      </c>
       <c r="K36"/>
       <c r="L36"/>
-      <c r="M36"/>
+      <c r="M36" t="s">
+        <v>17</v>
+      </c>
       <c r="N36"/>
-      <c r="O36"/>
+      <c r="O36" t="s">
+        <v>261</v>
+      </c>
       <c r="P36"/>
-      <c r="Q36"/>
-      <c r="R36"/>
-      <c r="S36"/>
+      <c r="Q36" t="s">
+        <v>18</v>
+      </c>
+      <c r="R36" t="s">
+        <v>19</v>
+      </c>
+      <c r="S36" t="s">
+        <v>20</v>
+      </c>
       <c r="T36"/>
-      <c r="U36"/>
-      <c r="V36"/>
-      <c r="W36"/>
-      <c r="X36"/>
+      <c r="U36" t="s">
+        <v>33</v>
+      </c>
+      <c r="V36" t="s">
+        <v>33</v>
+      </c>
+      <c r="W36" t="s">
+        <v>262</v>
+      </c>
+      <c r="X36" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>264</v>
+      </c>
       <c r="Z36" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>324</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>146</v>
+        <v>56</v>
       </c>
       <c r="D37" t="s">
         <v>24</v>
       </c>
       <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="I37"/>
-      <c r="J37"/>
-      <c r="K37"/>
+      <c r="F37" t="s">
+        <v>57</v>
+      </c>
+      <c r="H37" t="s">
+        <v>58</v>
+      </c>
+      <c r="I37" t="s">
+        <v>59</v>
+      </c>
+      <c r="J37" t="s">
+        <v>60</v>
+      </c>
+      <c r="K37" t="s">
+        <v>15</v>
+      </c>
       <c r="L37"/>
       <c r="M37"/>
       <c r="N37"/>
-      <c r="O37"/>
-      <c r="P37"/>
+      <c r="O37" t="s">
+        <v>61</v>
+      </c>
+      <c r="P37" t="s">
+        <v>62</v>
+      </c>
       <c r="Q37"/>
       <c r="R37"/>
-      <c r="S37"/>
-      <c r="T37"/>
-      <c r="U37"/>
+      <c r="S37" t="s">
+        <v>20</v>
+      </c>
+      <c r="T37" t="s">
+        <v>63</v>
+      </c>
+      <c r="U37" t="s">
+        <v>33</v>
+      </c>
       <c r="V37"/>
-      <c r="W37"/>
-      <c r="X37"/>
+      <c r="W37" t="s">
+        <v>88</v>
+      </c>
+      <c r="X37" t="s">
+        <v>89</v>
+      </c>
       <c r="Z37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>325</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>326</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
         <v>56</v>
       </c>
       <c r="D38" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E38"/>
       <c r="F38" t="s">
-        <v>327</v>
-      </c>
-      <c r="G38"/>
-      <c r="H38" s="2" t="s">
-        <v>328</v>
+        <v>57</v>
+      </c>
+      <c r="H38" t="s">
+        <v>58</v>
       </c>
       <c r="I38" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J38" t="s">
-        <v>329</v>
+        <v>65</v>
       </c>
       <c r="K38" t="s">
         <v>15</v>
@@ -3691,1063 +4065,167 @@
       <c r="L38"/>
       <c r="M38"/>
       <c r="N38"/>
-      <c r="O38"/>
+      <c r="O38" t="s">
+        <v>66</v>
+      </c>
       <c r="P38" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>18</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="Q38"/>
       <c r="R38"/>
-      <c r="S38"/>
+      <c r="S38" t="s">
+        <v>20</v>
+      </c>
       <c r="T38" t="s">
-        <v>331</v>
+        <v>63</v>
       </c>
       <c r="U38" t="s">
         <v>33</v>
       </c>
-      <c r="V38" t="s">
-        <v>33</v>
-      </c>
+      <c r="V38"/>
       <c r="W38" t="s">
-        <v>332</v>
+        <v>88</v>
       </c>
       <c r="X38" t="s">
-        <v>333</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="Z38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:26" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>334</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>335</v>
+        <v>55</v>
       </c>
       <c r="C39" t="s">
-        <v>336</v>
+        <v>56</v>
       </c>
       <c r="D39" t="s">
         <v>24</v>
       </c>
       <c r="E39"/>
       <c r="F39" t="s">
-        <v>28</v>
-      </c>
-      <c r="G39"/>
-      <c r="H39" s="2" t="s">
-        <v>337</v>
+        <v>57</v>
+      </c>
+      <c r="H39" t="s">
+        <v>58</v>
       </c>
       <c r="I39" t="s">
-        <v>208</v>
-      </c>
-      <c r="J39"/>
-      <c r="K39"/>
+        <v>68</v>
+      </c>
+      <c r="J39" t="s">
+        <v>69</v>
+      </c>
+      <c r="K39" t="s">
+        <v>15</v>
+      </c>
       <c r="L39"/>
       <c r="M39"/>
-      <c r="N39" t="s">
-        <v>338</v>
-      </c>
-      <c r="O39"/>
+      <c r="N39"/>
+      <c r="O39" t="s">
+        <v>48</v>
+      </c>
       <c r="P39" t="s">
-        <v>339</v>
+        <v>70</v>
       </c>
       <c r="Q39" t="s">
         <v>18</v>
       </c>
-      <c r="R39" t="s">
-        <v>19</v>
-      </c>
-      <c r="S39" t="s">
-        <v>20</v>
-      </c>
+      <c r="R39"/>
+      <c r="S39"/>
       <c r="T39" t="s">
-        <v>340</v>
+        <v>63</v>
       </c>
       <c r="U39" t="s">
         <v>33</v>
       </c>
-      <c r="V39" t="s">
-        <v>114</v>
-      </c>
+      <c r="V39"/>
       <c r="W39" t="s">
-        <v>341</v>
+        <v>88</v>
       </c>
       <c r="X39" t="s">
-        <v>342</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>343</v>
+        <v>89</v>
       </c>
       <c r="Z39" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:26" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>344</v>
+        <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>345</v>
+        <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>279</v>
+        <v>23</v>
       </c>
       <c r="D40" t="s">
         <v>24</v>
       </c>
       <c r="E40"/>
       <c r="F40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G40"/>
-      <c r="H40" s="2" t="s">
-        <v>346</v>
+        <v>57</v>
+      </c>
+      <c r="H40" t="s">
+        <v>71</v>
       </c>
       <c r="I40" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="J40" t="s">
-        <v>347</v>
+        <v>72</v>
       </c>
       <c r="K40"/>
       <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40" t="s">
-        <v>348</v>
-      </c>
+      <c r="M40" t="s">
+        <v>17</v>
+      </c>
+      <c r="N40"/>
       <c r="O40" t="s">
-        <v>97</v>
-      </c>
-      <c r="P40"/>
+        <v>73</v>
+      </c>
+      <c r="P40" t="s">
+        <v>74</v>
+      </c>
       <c r="Q40" t="s">
         <v>18</v>
       </c>
       <c r="R40"/>
       <c r="S40"/>
-      <c r="T40"/>
+      <c r="T40" t="s">
+        <v>75</v>
+      </c>
       <c r="U40" t="s">
         <v>33</v>
       </c>
       <c r="V40"/>
       <c r="W40" t="s">
-        <v>349</v>
+        <v>90</v>
       </c>
       <c r="X40" t="s">
-        <v>350</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>351</v>
+        <v>91</v>
       </c>
       <c r="Z40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>352</v>
-      </c>
-      <c r="B41" t="s">
-        <v>353</v>
-      </c>
-      <c r="C41" t="s">
-        <v>152</v>
-      </c>
-      <c r="D41" t="s">
-        <v>37</v>
-      </c>
-      <c r="E41"/>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="I41"/>
-      <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41"/>
-      <c r="M41"/>
-      <c r="N41"/>
-      <c r="O41"/>
-      <c r="P41"/>
-      <c r="Q41"/>
-      <c r="R41"/>
-      <c r="S41"/>
-      <c r="T41"/>
-      <c r="U41"/>
-      <c r="V41"/>
-      <c r="W41"/>
-      <c r="X41"/>
-      <c r="Z41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>354</v>
-      </c>
-      <c r="B42" t="s">
-        <v>335</v>
-      </c>
-      <c r="C42" t="s">
-        <v>336</v>
-      </c>
-      <c r="D42" t="s">
-        <v>24</v>
-      </c>
-      <c r="E42"/>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="I42"/>
-      <c r="J42"/>
-      <c r="K42"/>
-      <c r="L42"/>
-      <c r="M42"/>
-      <c r="N42"/>
-      <c r="O42"/>
-      <c r="P42"/>
-      <c r="Q42"/>
-      <c r="R42"/>
-      <c r="S42"/>
-      <c r="T42"/>
-      <c r="U42"/>
-      <c r="V42"/>
-      <c r="W42"/>
-      <c r="X42"/>
-      <c r="Z42" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>355</v>
-      </c>
-      <c r="B43" t="s">
-        <v>356</v>
-      </c>
-      <c r="C43" t="s">
-        <v>357</v>
-      </c>
-      <c r="D43" t="s">
-        <v>24</v>
-      </c>
-      <c r="E43"/>
-      <c r="F43" t="s">
-        <v>28</v>
-      </c>
-      <c r="G43"/>
-      <c r="H43" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="I43" t="s">
-        <v>208</v>
-      </c>
-      <c r="J43"/>
-      <c r="K43"/>
-      <c r="L43"/>
-      <c r="M43"/>
-      <c r="N43" t="s">
-        <v>359</v>
-      </c>
-      <c r="O43"/>
-      <c r="P43"/>
-      <c r="Q43" t="s">
-        <v>18</v>
-      </c>
-      <c r="R43"/>
-      <c r="S43"/>
-      <c r="T43" t="s">
-        <v>360</v>
-      </c>
-      <c r="U43" t="s">
-        <v>33</v>
-      </c>
-      <c r="V43" t="s">
-        <v>33</v>
-      </c>
-      <c r="W43" t="s">
-        <v>361</v>
-      </c>
-      <c r="X43" t="s">
-        <v>362</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>363</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>364</v>
-      </c>
-      <c r="B44" t="s">
-        <v>365</v>
-      </c>
-      <c r="C44" t="s">
-        <v>323</v>
-      </c>
-      <c r="D44" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="I44"/>
-      <c r="J44"/>
-      <c r="K44"/>
-      <c r="L44"/>
-      <c r="M44"/>
-      <c r="N44"/>
-      <c r="O44"/>
-      <c r="P44"/>
-      <c r="Q44"/>
-      <c r="R44"/>
-      <c r="S44"/>
-      <c r="T44"/>
-      <c r="U44"/>
-      <c r="V44"/>
-      <c r="W44"/>
-      <c r="X44"/>
-      <c r="Z44" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>366</v>
-      </c>
-      <c r="B45" t="s">
-        <v>367</v>
-      </c>
-      <c r="C45" t="s">
-        <v>368</v>
-      </c>
-      <c r="D45" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" t="s">
-        <v>369</v>
-      </c>
-      <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>370</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="I45" t="s">
-        <v>208</v>
-      </c>
-      <c r="J45" t="s">
-        <v>372</v>
-      </c>
-      <c r="K45"/>
-      <c r="L45"/>
-      <c r="M45"/>
-      <c r="N45" t="s">
-        <v>373</v>
-      </c>
-      <c r="O45" t="s">
-        <v>374</v>
-      </c>
-      <c r="P45" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>18</v>
-      </c>
-      <c r="R45"/>
-      <c r="S45"/>
-      <c r="T45" t="s">
-        <v>376</v>
-      </c>
-      <c r="U45" t="s">
-        <v>33</v>
-      </c>
-      <c r="V45" t="s">
-        <v>33</v>
-      </c>
-      <c r="W45" t="s">
-        <v>377</v>
-      </c>
-      <c r="X45" t="s">
-        <v>378</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>379</v>
-      </c>
-      <c r="B46" t="s">
-        <v>380</v>
-      </c>
-      <c r="C46" t="s">
-        <v>368</v>
-      </c>
-      <c r="D46" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" t="s">
-        <v>369</v>
-      </c>
-      <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>381</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="I46" t="s">
-        <v>123</v>
-      </c>
-      <c r="J46" t="s">
-        <v>383</v>
-      </c>
-      <c r="K46"/>
-      <c r="L46"/>
-      <c r="M46"/>
-      <c r="N46" t="s">
-        <v>384</v>
-      </c>
-      <c r="O46" t="s">
-        <v>385</v>
-      </c>
-      <c r="P46" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>18</v>
-      </c>
-      <c r="R46"/>
-      <c r="S46"/>
-      <c r="T46" t="s">
-        <v>387</v>
-      </c>
-      <c r="U46" t="s">
-        <v>33</v>
-      </c>
-      <c r="V46" t="s">
-        <v>33</v>
-      </c>
-      <c r="W46" t="s">
-        <v>388</v>
-      </c>
-      <c r="X46" t="s">
-        <v>389</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>390</v>
-      </c>
-      <c r="B47" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" t="s">
-        <v>24</v>
-      </c>
-      <c r="E47"/>
-      <c r="F47" t="s">
-        <v>163</v>
-      </c>
-      <c r="G47"/>
-      <c r="H47" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="I47" t="s">
-        <v>30</v>
-      </c>
-      <c r="J47" t="s">
-        <v>392</v>
-      </c>
-      <c r="K47"/>
-      <c r="L47"/>
-      <c r="M47"/>
-      <c r="N47" t="s">
-        <v>393</v>
-      </c>
-      <c r="O47" t="s">
-        <v>48</v>
-      </c>
-      <c r="P47" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>18</v>
-      </c>
-      <c r="R47"/>
-      <c r="S47"/>
-      <c r="T47" t="s">
-        <v>395</v>
-      </c>
-      <c r="U47" t="s">
-        <v>33</v>
-      </c>
-      <c r="V47" t="s">
-        <v>33</v>
-      </c>
-      <c r="W47" t="s">
-        <v>396</v>
-      </c>
-      <c r="X47" t="s">
-        <v>397</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>398</v>
-      </c>
-      <c r="B48" t="s">
-        <v>43</v>
-      </c>
-      <c r="C48" t="s">
-        <v>44</v>
-      </c>
-      <c r="D48" t="s">
-        <v>24</v>
-      </c>
-      <c r="E48"/>
-      <c r="F48"/>
-      <c r="G48"/>
-      <c r="I48"/>
-      <c r="J48"/>
-      <c r="K48"/>
-      <c r="L48"/>
-      <c r="M48"/>
-      <c r="N48"/>
-      <c r="O48"/>
-      <c r="P48"/>
-      <c r="Q48"/>
-      <c r="R48"/>
-      <c r="S48"/>
-      <c r="T48"/>
-      <c r="U48"/>
-      <c r="V48"/>
-      <c r="W48"/>
-      <c r="X48"/>
-      <c r="Z48" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
-        <v>21</v>
-      </c>
-      <c r="B49" t="s">
-        <v>22</v>
-      </c>
-      <c r="C49" t="s">
-        <v>23</v>
-      </c>
-      <c r="D49" t="s">
-        <v>24</v>
-      </c>
-      <c r="E49"/>
-      <c r="F49"/>
-      <c r="G49"/>
-      <c r="I49"/>
-      <c r="J49"/>
-      <c r="K49"/>
-      <c r="L49"/>
-      <c r="M49"/>
-      <c r="N49"/>
-      <c r="O49"/>
-      <c r="P49"/>
-      <c r="Q49"/>
-      <c r="R49"/>
-      <c r="S49"/>
-      <c r="T49"/>
-      <c r="U49"/>
-      <c r="V49"/>
-      <c r="W49"/>
-      <c r="X49"/>
-      <c r="Z49" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>25</v>
-      </c>
-      <c r="B50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C50" t="s">
-        <v>27</v>
-      </c>
-      <c r="D50" t="s">
-        <v>24</v>
-      </c>
-      <c r="E50"/>
-      <c r="F50" t="s">
-        <v>28</v>
-      </c>
-      <c r="G50"/>
-      <c r="H50" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I50" t="s">
-        <v>30</v>
-      </c>
-      <c r="J50" t="s">
-        <v>31</v>
-      </c>
-      <c r="K50"/>
-      <c r="L50"/>
-      <c r="M50"/>
-      <c r="N50" t="s">
-        <v>32</v>
-      </c>
-      <c r="O50"/>
-      <c r="P50"/>
-      <c r="Q50" t="s">
-        <v>18</v>
-      </c>
-      <c r="R50"/>
-      <c r="S50"/>
-      <c r="T50"/>
-      <c r="U50" t="s">
-        <v>33</v>
-      </c>
-      <c r="V50"/>
-      <c r="W50" t="s">
-        <v>79</v>
-      </c>
-      <c r="X50" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z50" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>34</v>
-      </c>
-      <c r="B51" t="s">
-        <v>35</v>
-      </c>
-      <c r="C51" t="s">
-        <v>36</v>
-      </c>
-      <c r="D51" t="s">
-        <v>37</v>
-      </c>
-      <c r="E51"/>
-      <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>38</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I51"/>
-      <c r="J51"/>
-      <c r="K51"/>
-      <c r="L51"/>
-      <c r="M51"/>
-      <c r="N51" t="s">
-        <v>40</v>
-      </c>
-      <c r="O51"/>
-      <c r="P51" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>18</v>
-      </c>
-      <c r="R51"/>
-      <c r="S51"/>
-      <c r="T51"/>
-      <c r="U51"/>
-      <c r="V51"/>
-      <c r="W51" t="s">
-        <v>81</v>
-      </c>
-      <c r="X51" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z51" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
-        <v>42</v>
-      </c>
-      <c r="B52" t="s">
-        <v>43</v>
-      </c>
-      <c r="C52" t="s">
-        <v>44</v>
-      </c>
-      <c r="D52" t="s">
-        <v>24</v>
-      </c>
-      <c r="E52"/>
-      <c r="F52" t="s">
-        <v>45</v>
-      </c>
-      <c r="G52"/>
-      <c r="H52" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I52" t="s">
-        <v>30</v>
-      </c>
-      <c r="J52" t="s">
-        <v>46</v>
-      </c>
-      <c r="K52"/>
-      <c r="L52"/>
-      <c r="M52"/>
-      <c r="N52" t="s">
-        <v>47</v>
-      </c>
-      <c r="O52" t="s">
-        <v>48</v>
-      </c>
-      <c r="P52" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>18</v>
-      </c>
-      <c r="R52"/>
-      <c r="S52"/>
-      <c r="T52" t="s">
-        <v>50</v>
-      </c>
-      <c r="U52"/>
-      <c r="V52"/>
-      <c r="W52" t="s">
-        <v>86</v>
-      </c>
-      <c r="X52" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z52" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
-        <v>42</v>
-      </c>
-      <c r="B53" t="s">
-        <v>43</v>
-      </c>
-      <c r="C53" t="s">
-        <v>44</v>
-      </c>
-      <c r="D53" t="s">
-        <v>24</v>
-      </c>
-      <c r="E53"/>
-      <c r="F53" t="s">
-        <v>28</v>
-      </c>
-      <c r="G53"/>
-      <c r="H53" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I53" t="s">
-        <v>30</v>
-      </c>
-      <c r="J53" t="s">
-        <v>52</v>
-      </c>
-      <c r="K53" t="s">
-        <v>15</v>
-      </c>
-      <c r="L53"/>
-      <c r="M53"/>
-      <c r="N53"/>
-      <c r="O53" t="s">
-        <v>48</v>
-      </c>
-      <c r="P53" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>18</v>
-      </c>
-      <c r="R53"/>
-      <c r="S53"/>
-      <c r="T53" t="s">
-        <v>50</v>
-      </c>
-      <c r="U53"/>
-      <c r="V53"/>
-      <c r="W53" t="s">
-        <v>86</v>
-      </c>
-      <c r="X53" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z53" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" t="s">
-        <v>56</v>
-      </c>
-      <c r="D54" t="s">
-        <v>24</v>
-      </c>
-      <c r="E54"/>
-      <c r="F54" t="s">
-        <v>57</v>
-      </c>
-      <c r="G54"/>
-      <c r="H54" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I54" t="s">
-        <v>59</v>
-      </c>
-      <c r="J54" t="s">
-        <v>60</v>
-      </c>
-      <c r="K54" t="s">
-        <v>15</v>
-      </c>
-      <c r="L54"/>
-      <c r="M54"/>
-      <c r="N54"/>
-      <c r="O54" t="s">
-        <v>61</v>
-      </c>
-      <c r="P54" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q54"/>
-      <c r="R54"/>
-      <c r="S54" t="s">
-        <v>20</v>
-      </c>
-      <c r="T54" t="s">
-        <v>63</v>
-      </c>
-      <c r="U54"/>
-      <c r="V54"/>
-      <c r="W54" t="s">
-        <v>88</v>
-      </c>
-      <c r="X54" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z54" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" t="s">
-        <v>56</v>
-      </c>
-      <c r="D55" t="s">
-        <v>24</v>
-      </c>
-      <c r="E55"/>
-      <c r="F55" t="s">
-        <v>57</v>
-      </c>
-      <c r="G55"/>
-      <c r="H55" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I55" t="s">
-        <v>64</v>
-      </c>
-      <c r="J55" t="s">
-        <v>65</v>
-      </c>
-      <c r="K55" t="s">
-        <v>15</v>
-      </c>
-      <c r="L55"/>
-      <c r="M55"/>
-      <c r="N55"/>
-      <c r="O55" t="s">
-        <v>66</v>
-      </c>
-      <c r="P55" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q55"/>
-      <c r="R55"/>
-      <c r="S55" t="s">
-        <v>20</v>
-      </c>
-      <c r="T55" t="s">
-        <v>63</v>
-      </c>
-      <c r="U55"/>
-      <c r="V55"/>
-      <c r="W55" t="s">
-        <v>88</v>
-      </c>
-      <c r="X55" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z55" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>55</v>
-      </c>
-      <c r="C56" t="s">
-        <v>56</v>
-      </c>
-      <c r="D56" t="s">
-        <v>24</v>
-      </c>
-      <c r="E56"/>
-      <c r="F56" t="s">
-        <v>57</v>
-      </c>
-      <c r="G56"/>
-      <c r="H56" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I56" t="s">
-        <v>68</v>
-      </c>
-      <c r="J56" t="s">
-        <v>69</v>
-      </c>
-      <c r="K56" t="s">
-        <v>15</v>
-      </c>
-      <c r="L56"/>
-      <c r="M56"/>
-      <c r="N56"/>
-      <c r="O56" t="s">
-        <v>48</v>
-      </c>
-      <c r="P56" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>18</v>
-      </c>
-      <c r="R56"/>
-      <c r="S56"/>
-      <c r="T56" t="s">
-        <v>63</v>
-      </c>
-      <c r="U56"/>
-      <c r="V56"/>
-      <c r="W56" t="s">
-        <v>88</v>
-      </c>
-      <c r="X56" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z56" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
-        <v>21</v>
-      </c>
-      <c r="B57" t="s">
-        <v>22</v>
-      </c>
-      <c r="C57" t="s">
-        <v>23</v>
-      </c>
-      <c r="D57" t="s">
-        <v>24</v>
-      </c>
-      <c r="E57"/>
-      <c r="F57" t="s">
-        <v>57</v>
-      </c>
-      <c r="G57"/>
-      <c r="H57" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I57" t="s">
-        <v>59</v>
-      </c>
-      <c r="J57" t="s">
-        <v>72</v>
-      </c>
-      <c r="K57"/>
-      <c r="L57"/>
-      <c r="M57" t="s">
-        <v>17</v>
-      </c>
-      <c r="N57"/>
-      <c r="O57" t="s">
-        <v>73</v>
-      </c>
-      <c r="P57" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>18</v>
-      </c>
-      <c r="R57"/>
-      <c r="S57"/>
-      <c r="T57" t="s">
-        <v>75</v>
-      </c>
-      <c r="U57"/>
-      <c r="V57"/>
-      <c r="W57" t="s">
-        <v>90</v>
-      </c>
-      <c r="X57" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z57" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A3:Z40">
+    <sortCondition ref="F3:F40"/>
+  </sortState>
+  <conditionalFormatting sqref="A3:D40 F1:F1048576 P1:P1048576 H1:J1048576 T1:V1048576">
+    <cfRule type="containsBlanks" dxfId="0" priority="2">
+      <formula>LEN(TRIM(A1))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="T14" r:id="rId1" xr:uid="{5CC98017-DB1F-410C-8D5A-6A112D846C4D}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>